--- a/General Documentation/OSMPI Part Management-MPS.xlsx
+++ b/General Documentation/OSMPI Part Management-MPS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RFLab\Documents\GitHub\MPS\General Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DFB750-7EAE-4916-BE1C-B8D6C4CAD9A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5CE3F4-46A3-4062-B062-78437844E9D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MPS" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="366">
   <si>
     <t>Magnetic Particle Spectroscopy Project Management Spreadsheet</t>
   </si>
@@ -477,21 +476,9 @@
     <t>Texas Instruments</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
     <t>INA217AIP</t>
   </si>
   <si>
-    <t>PDIP</t>
-  </si>
-  <si>
-    <t>INA217</t>
-  </si>
-  <si>
-    <t>SINGLE SUPPLY</t>
-  </si>
-  <si>
     <t>Low Noise, Low-Distortion Instrumentation Amplifier Replacement for SSM2017</t>
   </si>
   <si>
@@ -525,21 +512,6 @@
     <t>W237-102</t>
   </si>
   <si>
-    <t>50Ohm</t>
-  </si>
-  <si>
-    <t>Straight</t>
-  </si>
-  <si>
-    <t>End Launch</t>
-  </si>
-  <si>
-    <t>MIL-STD-348</t>
-  </si>
-  <si>
-    <t>Jack</t>
-  </si>
-  <si>
     <t>https://www.we-online.com/catalog/datasheet/60312202111527.pdf</t>
   </si>
   <si>
@@ -669,15 +641,9 @@
     <t>LEDSML0805</t>
   </si>
   <si>
-    <t>Z</t>
-  </si>
-  <si>
     <t>VENDOR</t>
   </si>
   <si>
-    <t>VALUE</t>
-  </si>
-  <si>
     <t>TP_SIGNAL_NAME</t>
   </si>
   <si>
@@ -690,15 +656,9 @@
     <t>PIN_COUNT</t>
   </si>
   <si>
-    <t>PART-NUMBER</t>
-  </si>
-  <si>
     <t>PACKAGE_DESIGNATOR</t>
   </si>
   <si>
-    <t>ORIENTATION-TYPE</t>
-  </si>
-  <si>
     <t>OC_NEWARK</t>
   </si>
   <si>
@@ -708,9 +668,6 @@
     <t>MPN</t>
   </si>
   <si>
-    <t>MOUNT</t>
-  </si>
-  <si>
     <t>MF</t>
   </si>
   <si>
@@ -720,18 +677,12 @@
     <t>MANUFACTURER</t>
   </si>
   <si>
-    <t>INTERFACE</t>
-  </si>
-  <si>
     <t>INDUSTRY_STD_PKG_TYPE</t>
   </si>
   <si>
     <t>GENERIC_PART_NUMBER</t>
   </si>
   <si>
-    <t>GENDER</t>
-  </si>
-  <si>
     <t>FAMILY_NAME</t>
   </si>
   <si>
@@ -741,9 +692,6 @@
     <t>DATASHEET_URL</t>
   </si>
   <si>
-    <t>DATASHEET-URL</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -1087,6 +1035,111 @@
   </si>
   <si>
     <t>LEDCHIPLED_0805</t>
+  </si>
+  <si>
+    <t>50R</t>
+  </si>
+  <si>
+    <t>Vendor/PN</t>
+  </si>
+  <si>
+    <t>Vendor URL</t>
+  </si>
+  <si>
+    <t>Item URL</t>
+  </si>
+  <si>
+    <t>We don’t use. Instead direct solder wires</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Digikey/475-2488-1-ND</t>
+  </si>
+  <si>
+    <t>Pick colors as wanted. Indication of power</t>
+  </si>
+  <si>
+    <t>Do not populate-- use when debugging or direct soldering to input/output</t>
+  </si>
+  <si>
+    <t>Digikey/296-13452-5-ND</t>
+  </si>
+  <si>
+    <t>Digikey/36-5019CT-ND</t>
+  </si>
+  <si>
+    <t>For use when debugging-- not necessary</t>
+  </si>
+  <si>
+    <t>Digikey/360-3899-ND</t>
+  </si>
+  <si>
+    <t>For gain selection</t>
+  </si>
+  <si>
+    <t>Direct solder battery wires if wanted, or use screw terminals</t>
+  </si>
+  <si>
+    <t>For INA stability, can use lower precision (but they are cheap enough, and high precision should be used on gain resistors anyway)</t>
+  </si>
+  <si>
+    <t>Digikey/PAT49.9BCT-ND</t>
+  </si>
+  <si>
+    <t>Value is a minimum. POLARIZED-- DO NOT PUT IN BACKWARDS. Line indicates negative terminal</t>
+  </si>
+  <si>
+    <t>Digikey/399-6650-1-ND</t>
+  </si>
+  <si>
+    <t>To enable a DC path for bias current of INA. Not critical value</t>
+  </si>
+  <si>
+    <t>Digikey/RMCF0805FT2K20CT-ND</t>
+  </si>
+  <si>
+    <t>Digikey/</t>
+  </si>
+  <si>
+    <t>Bypass Cap. Do not ignore</t>
+  </si>
+  <si>
+    <t>Digikey/478-11522-1-ND</t>
+  </si>
+  <si>
+    <t>Gain resistors. Use 50 Ohms, and then other values depending on what gain you want. See pg. 11 of INA217 datasheet</t>
+  </si>
+  <si>
+    <t>Short out with either 0 Ohm resistor or wires</t>
+  </si>
+  <si>
+    <t>Digikey/2019-RK73Z2ARTTDCT-ND</t>
+  </si>
+  <si>
+    <t>AC Coupling Cap. Use C0G/NP0 for minimal distortion, this is a minimum but pick value based on cutoff freq.</t>
+  </si>
+  <si>
+    <t>Digikey/445-180318-1-ND</t>
+  </si>
+  <si>
+    <t>Digikey/2368-1N4004-ND</t>
+  </si>
+  <si>
+    <t>Generic diode note polarity</t>
+  </si>
+  <si>
+    <t>Can use the 2.2k or 1k (current limiting for LED)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not needed, but prevents high freq. noise. </t>
+  </si>
+  <si>
+    <t>Digikey/399-13001-1-ND</t>
+  </si>
+  <si>
+    <t>For bypass of power supply</t>
   </si>
 </sst>
 </file>
@@ -1096,7 +1149,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$]#,##0.00"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1154,6 +1207,19 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1497,7 +1563,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1587,6 +1653,8 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="3" fillId="10" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1604,14 +1672,35 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1644,6 +1733,26 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{420E87B3-F713-4A72-B42E-6A1E63FF5238}" name="Table2" displayName="Table2" ref="A4:K23" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A4:K23" xr:uid="{6CDC7EFB-D478-416B-8E2C-BAF2C849989D}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{7141DB6C-9F45-4191-A672-8A3565416365}" name="Qty"/>
+    <tableColumn id="2" xr3:uid="{D294B6D9-EDE2-4874-9AD8-C188BE0DDC41}" name="Value"/>
+    <tableColumn id="3" xr3:uid="{4C935146-8E0F-4854-B13A-278E6C7BD024}" name="Device"/>
+    <tableColumn id="4" xr3:uid="{613DED33-E70A-4E6A-A784-C1A75CAB0B19}" name="Package"/>
+    <tableColumn id="5" xr3:uid="{2D3C645B-894D-4099-B7E9-E05B3F41AE34}" name="Parts"/>
+    <tableColumn id="6" xr3:uid="{D75576FF-0AD5-4AA9-ACA9-026FF425CAB6}" name="Description"/>
+    <tableColumn id="7" xr3:uid="{DB322F1F-03C1-4EBB-8151-2B4870F29C84}" name="Notes"/>
+    <tableColumn id="8" xr3:uid="{B84E06FD-6DD0-4F04-8A1C-1058359A6453}" name="Vendor/PN"/>
+    <tableColumn id="9" xr3:uid="{DA6F0FB4-5361-45B1-A6AC-940EB79F8E60}" name="Vendor URL"/>
+    <tableColumn id="10" xr3:uid="{01337291-F030-431B-B9DF-33894B7B716D}" name="Item URL"/>
+    <tableColumn id="11" xr3:uid="{7A366A51-937E-4C8D-B086-6A26FBAB0506}" name="Column1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1881,57 +1990,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="95" t="s">
-        <v>1</v>
-      </c>
-      <c r="W1" s="96"/>
-      <c r="X1" s="97"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="97" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" s="98"/>
+      <c r="X1" s="99"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="92"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="94"/>
+      <c r="A2" s="94"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="95"/>
+      <c r="T2" s="95"/>
+      <c r="U2" s="96"/>
       <c r="V2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1941,13 +2050,13 @@
       <c r="X2" s="3"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
       <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
@@ -5787,7 +5896,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="3">
       <formula>LEN(TRIM(M4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5814,1045 +5923,1009 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26679483-298F-467F-B7FE-634856DB3200}">
-  <dimension ref="A4:AE23"/>
+  <dimension ref="A4:AF23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.75" customWidth="1"/>
     <col min="3" max="3" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="9.875" customWidth="1"/>
+    <col min="5" max="5" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.125" customWidth="1"/>
+    <col min="7" max="7" width="49.875" customWidth="1"/>
+    <col min="8" max="8" width="37.5" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="56.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A4" s="100" t="s">
-        <v>238</v>
-      </c>
-      <c r="B4" s="100" t="s">
-        <v>237</v>
-      </c>
-      <c r="C4" s="100" t="s">
-        <v>236</v>
-      </c>
-      <c r="D4" s="100" t="s">
-        <v>235</v>
-      </c>
-      <c r="E4" s="100" t="s">
-        <v>234</v>
-      </c>
-      <c r="F4" s="100" t="s">
-        <v>233</v>
-      </c>
-      <c r="G4" s="100" t="s">
-        <v>232</v>
-      </c>
-      <c r="H4" s="100" t="s">
-        <v>231</v>
-      </c>
-      <c r="I4" s="100" t="s">
-        <v>230</v>
-      </c>
-      <c r="J4" s="100" t="s">
-        <v>229</v>
-      </c>
-      <c r="K4" s="100" t="s">
-        <v>228</v>
-      </c>
-      <c r="L4" s="100" t="s">
-        <v>227</v>
-      </c>
-      <c r="M4" s="100" t="s">
-        <v>226</v>
-      </c>
-      <c r="N4" s="100" t="s">
-        <v>225</v>
-      </c>
-      <c r="O4" s="100" t="s">
-        <v>224</v>
-      </c>
-      <c r="P4" s="100" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q4" s="100" t="s">
+    <row r="4" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="89" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4" s="89" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="89" t="s">
+        <v>219</v>
+      </c>
+      <c r="D4" s="89" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" s="102" t="s">
+        <v>217</v>
+      </c>
+      <c r="F4" s="102" t="s">
+        <v>216</v>
+      </c>
+      <c r="G4" s="102" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="102" t="s">
+        <v>332</v>
+      </c>
+      <c r="I4" s="102" t="s">
+        <v>333</v>
+      </c>
+      <c r="J4" s="102" t="s">
+        <v>334</v>
+      </c>
+      <c r="K4" s="89" t="s">
+        <v>336</v>
+      </c>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="89"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="89"/>
+      <c r="X4" s="89"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="89"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="89"/>
+      <c r="AE4" s="89"/>
+      <c r="AF4" s="89"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A5" s="89">
+        <v>2</v>
+      </c>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" s="89" t="s">
+        <v>197</v>
+      </c>
+      <c r="E5" s="89" t="s">
+        <v>196</v>
+      </c>
+      <c r="F5" s="89" t="s">
+        <v>195</v>
+      </c>
+      <c r="G5" s="103" t="s">
+        <v>338</v>
+      </c>
+      <c r="H5" s="103" t="s">
+        <v>337</v>
+      </c>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="89"/>
+      <c r="T5" s="89"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
+      <c r="W5" s="89"/>
+      <c r="X5" s="89"/>
+      <c r="Y5" s="89"/>
+      <c r="Z5" s="89"/>
+      <c r="AA5" s="89"/>
+      <c r="AB5" s="89"/>
+      <c r="AC5" s="89"/>
+      <c r="AD5" s="89"/>
+      <c r="AE5" s="89"/>
+      <c r="AF5" s="89"/>
+    </row>
+    <row r="6" spans="1:32" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="89">
+        <v>6</v>
+      </c>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="E6" s="89" t="s">
+        <v>192</v>
+      </c>
+      <c r="F6" s="89" t="s">
+        <v>191</v>
+      </c>
+      <c r="G6" s="104" t="s">
+        <v>339</v>
+      </c>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="89"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="89"/>
+      <c r="R6" s="89"/>
+      <c r="S6" s="89"/>
+      <c r="T6" s="89"/>
+      <c r="U6" s="89"/>
+      <c r="V6" s="89"/>
+      <c r="W6" s="89"/>
+      <c r="X6" s="89"/>
+      <c r="Y6" s="89"/>
+      <c r="Z6" s="89"/>
+      <c r="AA6" s="89"/>
+      <c r="AB6" s="89"/>
+      <c r="AC6" s="89"/>
+      <c r="AD6" s="89"/>
+      <c r="AE6" s="89"/>
+      <c r="AF6" s="89"/>
+    </row>
+    <row r="7" spans="1:32" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="89">
+        <v>4</v>
+      </c>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" s="89" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" s="89" t="s">
+        <v>190</v>
+      </c>
+      <c r="F7" s="89" t="s">
+        <v>160</v>
+      </c>
+      <c r="G7" s="104" t="s">
+        <v>355</v>
+      </c>
+      <c r="H7" s="103" t="s">
+        <v>352</v>
+      </c>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="89"/>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="89"/>
+      <c r="R7" s="89"/>
+      <c r="S7" s="89"/>
+      <c r="T7" s="89"/>
+      <c r="U7" s="89"/>
+      <c r="V7" s="89"/>
+      <c r="W7" s="89"/>
+      <c r="X7" s="89"/>
+      <c r="Y7" s="89"/>
+      <c r="Z7" s="89"/>
+      <c r="AA7" s="89"/>
+      <c r="AB7" s="89"/>
+      <c r="AC7" s="89"/>
+      <c r="AD7" s="89"/>
+      <c r="AE7" s="89"/>
+      <c r="AF7" s="89"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A8" s="89">
+        <v>2</v>
+      </c>
+      <c r="B8" s="89" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" s="89" t="s">
+        <v>174</v>
+      </c>
+      <c r="E8" s="89" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" s="103" t="s">
+        <v>353</v>
+      </c>
+      <c r="H8" s="103" t="s">
+        <v>354</v>
+      </c>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="89"/>
+      <c r="S8" s="89"/>
+      <c r="T8" s="89"/>
+      <c r="U8" s="89"/>
+      <c r="V8" s="89"/>
+      <c r="W8" s="89"/>
+      <c r="X8" s="89"/>
+      <c r="Y8" s="89"/>
+      <c r="Z8" s="89"/>
+      <c r="AA8" s="89"/>
+      <c r="AB8" s="89"/>
+      <c r="AC8" s="89"/>
+      <c r="AD8" s="89"/>
+      <c r="AE8" s="89"/>
+      <c r="AF8" s="89"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A9" s="89">
+        <v>2</v>
+      </c>
+      <c r="B9" s="89">
+        <v>0</v>
+      </c>
+      <c r="C9" s="89" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" s="89" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9" s="89" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" s="89" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" s="103" t="s">
+        <v>356</v>
+      </c>
+      <c r="H9" s="103" t="s">
+        <v>357</v>
+      </c>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="89"/>
+      <c r="Q9" s="89"/>
+      <c r="R9" s="89"/>
+      <c r="S9" s="89"/>
+      <c r="T9" s="89"/>
+      <c r="U9" s="89"/>
+      <c r="V9" s="89"/>
+      <c r="W9" s="89"/>
+      <c r="X9" s="89"/>
+      <c r="Y9" s="89"/>
+      <c r="Z9" s="89"/>
+      <c r="AA9" s="89"/>
+      <c r="AB9" s="89"/>
+      <c r="AC9" s="89"/>
+      <c r="AD9" s="89"/>
+      <c r="AE9" s="89"/>
+      <c r="AF9" s="89"/>
+    </row>
+    <row r="10" spans="1:32" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="89">
+        <v>2</v>
+      </c>
+      <c r="B10" s="89" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" s="89" t="s">
+        <v>174</v>
+      </c>
+      <c r="E10" s="89" t="s">
+        <v>185</v>
+      </c>
+      <c r="F10" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="G10" s="104" t="s">
+        <v>358</v>
+      </c>
+      <c r="H10" s="103" t="s">
+        <v>359</v>
+      </c>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="89"/>
+      <c r="Q10" s="89"/>
+      <c r="R10" s="89"/>
+      <c r="S10" s="89"/>
+      <c r="T10" s="89"/>
+      <c r="U10" s="89"/>
+      <c r="V10" s="89"/>
+      <c r="W10" s="89"/>
+      <c r="X10" s="89"/>
+      <c r="Y10" s="89"/>
+      <c r="Z10" s="89"/>
+      <c r="AA10" s="89"/>
+      <c r="AB10" s="89"/>
+      <c r="AC10" s="89"/>
+      <c r="AD10" s="89"/>
+      <c r="AE10" s="89"/>
+      <c r="AF10" s="89"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A11" s="89">
+        <v>2</v>
+      </c>
+      <c r="B11" s="89" t="s">
+        <v>184</v>
+      </c>
+      <c r="C11" s="89" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" s="89" t="s">
+        <v>183</v>
+      </c>
+      <c r="E11" s="89" t="s">
+        <v>182</v>
+      </c>
+      <c r="F11" s="89" t="s">
+        <v>181</v>
+      </c>
+      <c r="G11" s="103" t="s">
+        <v>361</v>
+      </c>
+      <c r="H11" s="103" t="s">
+        <v>360</v>
+      </c>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="89"/>
+      <c r="O11" s="89"/>
+      <c r="P11" s="89"/>
+      <c r="Q11" s="89"/>
+      <c r="R11" s="89"/>
+      <c r="S11" s="89"/>
+      <c r="T11" s="89"/>
+      <c r="U11" s="89"/>
+      <c r="V11" s="89"/>
+      <c r="W11" s="89"/>
+      <c r="X11" s="89"/>
+      <c r="Y11" s="89"/>
+      <c r="Z11" s="89"/>
+      <c r="AA11" s="89"/>
+      <c r="AB11" s="89"/>
+      <c r="AC11" s="89"/>
+      <c r="AD11" s="89"/>
+      <c r="AE11" s="89"/>
+      <c r="AF11" s="89"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A12" s="89">
+        <v>2</v>
+      </c>
+      <c r="B12" s="89" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" s="89" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="89" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" s="89" t="s">
+        <v>179</v>
+      </c>
+      <c r="F12" s="89" t="s">
+        <v>160</v>
+      </c>
+      <c r="G12" s="103" t="s">
+        <v>362</v>
+      </c>
+      <c r="H12" s="103" t="s">
+        <v>352</v>
+      </c>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="89"/>
+      <c r="N12" s="89"/>
+      <c r="O12" s="89"/>
+      <c r="P12" s="89"/>
+      <c r="Q12" s="89"/>
+      <c r="R12" s="89"/>
+      <c r="S12" s="89"/>
+      <c r="T12" s="89"/>
+      <c r="U12" s="89"/>
+      <c r="V12" s="89"/>
+      <c r="W12" s="89"/>
+      <c r="X12" s="89"/>
+      <c r="Y12" s="89"/>
+      <c r="Z12" s="89"/>
+      <c r="AA12" s="89"/>
+      <c r="AB12" s="89"/>
+      <c r="AC12" s="89"/>
+      <c r="AD12" s="89"/>
+      <c r="AE12" s="89"/>
+      <c r="AF12" s="89"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A13" s="89">
+        <v>1</v>
+      </c>
+      <c r="B13" s="89" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="89" t="s">
+        <v>174</v>
+      </c>
+      <c r="E13" s="89" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="G13" s="103" t="s">
+        <v>363</v>
+      </c>
+      <c r="H13" s="103" t="s">
+        <v>352</v>
+      </c>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="89"/>
+      <c r="P13" s="89"/>
+      <c r="Q13" s="89"/>
+      <c r="R13" s="89"/>
+      <c r="S13" s="89"/>
+      <c r="T13" s="89"/>
+      <c r="U13" s="89"/>
+      <c r="V13" s="89"/>
+      <c r="W13" s="89"/>
+      <c r="X13" s="89"/>
+      <c r="Y13" s="89"/>
+      <c r="Z13" s="89"/>
+      <c r="AA13" s="89"/>
+      <c r="AB13" s="89"/>
+      <c r="AC13" s="89"/>
+      <c r="AD13" s="89"/>
+      <c r="AE13" s="89"/>
+      <c r="AF13" s="89"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A14" s="89">
+        <v>2</v>
+      </c>
+      <c r="B14" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="D14" s="89" t="s">
+        <v>174</v>
+      </c>
+      <c r="E14" s="89" t="s">
+        <v>173</v>
+      </c>
+      <c r="F14" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="G14" s="103" t="s">
+        <v>365</v>
+      </c>
+      <c r="H14" s="103" t="s">
+        <v>364</v>
+      </c>
+      <c r="I14" s="89"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="89"/>
+      <c r="N14" s="89"/>
+      <c r="O14" s="89"/>
+      <c r="P14" s="89"/>
+      <c r="Q14" s="89"/>
+      <c r="R14" s="89"/>
+      <c r="S14" s="89"/>
+      <c r="T14" s="89"/>
+      <c r="U14" s="89"/>
+      <c r="V14" s="89"/>
+      <c r="W14" s="89"/>
+      <c r="X14" s="89"/>
+      <c r="Y14" s="89"/>
+      <c r="Z14" s="89"/>
+      <c r="AA14" s="89"/>
+      <c r="AB14" s="89"/>
+      <c r="AC14" s="89"/>
+      <c r="AD14" s="89"/>
+      <c r="AE14" s="89"/>
+      <c r="AF14" s="89"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A15" s="89">
+        <v>3</v>
+      </c>
+      <c r="B15" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="89" t="s">
+        <v>163</v>
+      </c>
+      <c r="D15" s="89" t="s">
+        <v>162</v>
+      </c>
+      <c r="E15" s="89" t="s">
+        <v>170</v>
+      </c>
+      <c r="F15" s="89" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" s="103" t="s">
+        <v>350</v>
+      </c>
+      <c r="H15" s="103" t="s">
+        <v>351</v>
+      </c>
+      <c r="I15" s="89"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="89"/>
+      <c r="N15" s="89"/>
+      <c r="O15" s="89"/>
+      <c r="P15" s="89"/>
+      <c r="Q15" s="89"/>
+      <c r="R15" s="89"/>
+      <c r="S15" s="89"/>
+      <c r="T15" s="89"/>
+      <c r="U15" s="89"/>
+      <c r="V15" s="89"/>
+      <c r="W15" s="89"/>
+      <c r="X15" s="89"/>
+      <c r="Y15" s="89"/>
+      <c r="Z15" s="89"/>
+      <c r="AA15" s="89"/>
+      <c r="AB15" s="89"/>
+      <c r="AC15" s="89"/>
+      <c r="AD15" s="89"/>
+      <c r="AE15" s="89"/>
+      <c r="AF15" s="89"/>
+    </row>
+    <row r="16" spans="1:32" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="89">
+        <v>2</v>
+      </c>
+      <c r="B16" s="89" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="89" t="s">
+        <v>168</v>
+      </c>
+      <c r="D16" s="89" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="F16" s="89" t="s">
+        <v>165</v>
+      </c>
+      <c r="G16" s="104" t="s">
+        <v>348</v>
+      </c>
+      <c r="H16" s="103" t="s">
+        <v>349</v>
+      </c>
+      <c r="I16" s="89"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="89"/>
+      <c r="N16" s="89"/>
+      <c r="O16" s="89"/>
+      <c r="P16" s="89"/>
+      <c r="Q16" s="89"/>
+      <c r="R16" s="89"/>
+      <c r="S16" s="89"/>
+      <c r="T16" s="89"/>
+      <c r="U16" s="89"/>
+      <c r="V16" s="89"/>
+      <c r="W16" s="89"/>
+      <c r="X16" s="89"/>
+      <c r="Y16" s="89"/>
+      <c r="Z16" s="89"/>
+      <c r="AA16" s="89"/>
+      <c r="AB16" s="89"/>
+      <c r="AC16" s="89"/>
+      <c r="AD16" s="89"/>
+      <c r="AE16" s="89"/>
+      <c r="AF16" s="89"/>
+    </row>
+    <row r="17" spans="1:32" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="89">
+        <v>2</v>
+      </c>
+      <c r="B17" s="89" t="s">
+        <v>331</v>
+      </c>
+      <c r="C17" s="89" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" s="89" t="s">
+        <v>162</v>
+      </c>
+      <c r="E17" s="89" t="s">
+        <v>161</v>
+      </c>
+      <c r="F17" s="89" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" s="104" t="s">
+        <v>346</v>
+      </c>
+      <c r="H17" s="103" t="s">
+        <v>347</v>
+      </c>
+      <c r="I17" s="89"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="89"/>
+      <c r="O17" s="89"/>
+      <c r="P17" s="89"/>
+      <c r="Q17" s="89"/>
+      <c r="R17" s="89"/>
+      <c r="S17" s="89"/>
+      <c r="T17" s="89"/>
+      <c r="U17" s="89"/>
+      <c r="V17" s="89"/>
+      <c r="W17" s="89"/>
+      <c r="X17" s="89"/>
+      <c r="Y17" s="89"/>
+      <c r="Z17" s="89"/>
+      <c r="AA17" s="89"/>
+      <c r="AB17" s="89"/>
+      <c r="AC17" s="89"/>
+      <c r="AD17" s="89"/>
+      <c r="AE17" s="89"/>
+      <c r="AF17" s="89"/>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A18" s="89">
+        <v>1</v>
+      </c>
+      <c r="B18" s="89"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="F18" s="89" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" s="89" t="s">
+        <v>335</v>
+      </c>
+      <c r="I18" s="89"/>
+      <c r="J18" s="89" t="s">
+        <v>156</v>
+      </c>
+      <c r="K18" s="89"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="89"/>
+      <c r="N18" s="89"/>
+      <c r="O18" s="89"/>
+      <c r="P18" s="89"/>
+      <c r="Q18" s="89"/>
+      <c r="R18" s="89"/>
+      <c r="S18" s="89"/>
+      <c r="T18" s="89"/>
+      <c r="U18" s="89"/>
+      <c r="V18" s="89"/>
+      <c r="W18" s="89"/>
+      <c r="X18" s="89"/>
+      <c r="Y18" s="89"/>
+      <c r="Z18" s="89"/>
+      <c r="AA18" s="89"/>
+      <c r="AB18" s="89"/>
+      <c r="AC18" s="89"/>
+      <c r="AD18" s="89"/>
+      <c r="AE18" s="89"/>
+      <c r="AF18" s="89"/>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A19" s="89">
+        <v>2</v>
+      </c>
+      <c r="B19" s="89"/>
+      <c r="C19" s="89" t="s">
+        <v>155</v>
+      </c>
+      <c r="D19" s="89" t="s">
+        <v>155</v>
+      </c>
+      <c r="E19" s="89" t="s">
+        <v>154</v>
+      </c>
+      <c r="F19" s="89" t="s">
+        <v>153</v>
+      </c>
+      <c r="G19" s="103" t="s">
+        <v>345</v>
+      </c>
+      <c r="H19" s="89"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="89"/>
+      <c r="O19" s="89"/>
+      <c r="P19" s="89"/>
+      <c r="Q19" s="89"/>
+      <c r="R19" s="89"/>
+      <c r="S19" s="89"/>
+      <c r="T19" s="89"/>
+      <c r="U19" s="89"/>
+      <c r="V19" s="89"/>
+      <c r="W19" s="89"/>
+      <c r="X19" s="89"/>
+      <c r="Y19" s="89"/>
+      <c r="Z19" s="89"/>
+      <c r="AA19" s="89"/>
+      <c r="AB19" s="89"/>
+      <c r="AC19" s="89"/>
+      <c r="AD19" s="89"/>
+      <c r="AE19" s="89"/>
+      <c r="AF19" s="89"/>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A20" s="89">
+        <v>1</v>
+      </c>
+      <c r="B20" s="89" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="89" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="89" t="s">
+        <v>149</v>
+      </c>
+      <c r="E20" s="89" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" s="89" t="s">
+        <v>147</v>
+      </c>
+      <c r="G20" s="89" t="s">
+        <v>145</v>
+      </c>
+      <c r="H20" s="89"/>
+      <c r="I20" s="89"/>
+      <c r="J20" s="89" t="s">
+        <v>146</v>
+      </c>
+      <c r="K20" s="89"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="89"/>
+      <c r="N20" s="89"/>
+      <c r="O20" s="89"/>
+      <c r="P20" s="89"/>
+      <c r="Q20" s="89"/>
+      <c r="R20" s="89"/>
+      <c r="S20" s="89"/>
+      <c r="T20" s="89"/>
+      <c r="U20" s="89"/>
+      <c r="V20" s="89"/>
+      <c r="W20" s="89"/>
+      <c r="X20" s="89"/>
+      <c r="Y20" s="89"/>
+      <c r="Z20" s="89"/>
+      <c r="AA20" s="89"/>
+      <c r="AB20" s="89"/>
+      <c r="AC20" s="89"/>
+      <c r="AD20" s="89"/>
+      <c r="AE20" s="89"/>
+      <c r="AF20" s="89"/>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A21" s="89">
+        <v>1</v>
+      </c>
+      <c r="B21" s="89" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" s="89" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="89" t="s">
+        <v>141</v>
+      </c>
+      <c r="E21" s="89" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="89" t="s">
+        <v>139</v>
+      </c>
+      <c r="G21" s="103" t="s">
+        <v>344</v>
+      </c>
+      <c r="H21" s="103" t="s">
+        <v>343</v>
+      </c>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="89"/>
+      <c r="N21" s="89"/>
+      <c r="O21" s="89"/>
+      <c r="P21" s="89"/>
+      <c r="Q21" s="89"/>
+      <c r="R21" s="89"/>
+      <c r="S21" s="89"/>
+      <c r="T21" s="89"/>
+      <c r="U21" s="89"/>
+      <c r="V21" s="89"/>
+      <c r="W21" s="89"/>
+      <c r="X21" s="89"/>
+      <c r="Y21" s="89"/>
+      <c r="Z21" s="89"/>
+      <c r="AA21" s="89"/>
+      <c r="AB21" s="89"/>
+      <c r="AC21" s="89"/>
+      <c r="AD21" s="89"/>
+      <c r="AE21" s="89"/>
+      <c r="AF21" s="89"/>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A22" s="89">
+        <v>2</v>
+      </c>
+      <c r="B22" s="89"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="89" t="s">
+        <v>134</v>
+      </c>
+      <c r="G22" s="103" t="s">
+        <v>342</v>
+      </c>
+      <c r="H22" s="103" t="s">
+        <v>341</v>
+      </c>
+      <c r="I22" s="89"/>
+      <c r="K22" s="89"/>
+      <c r="L22" s="89"/>
+      <c r="M22" s="89"/>
+      <c r="N22" s="89"/>
+      <c r="O22" s="89"/>
+      <c r="P22" s="89"/>
+      <c r="Q22" s="89"/>
+      <c r="R22" s="89"/>
+      <c r="S22" s="89"/>
+      <c r="T22" s="89"/>
+      <c r="U22" s="89"/>
+      <c r="V22" s="89"/>
+      <c r="W22" s="89"/>
+      <c r="X22" s="89"/>
+      <c r="Y22" s="89"/>
+      <c r="Z22" s="89"/>
+      <c r="AA22" s="89"/>
+      <c r="AB22" s="89"/>
+      <c r="AC22" s="89"/>
+      <c r="AD22" s="89"/>
+      <c r="AE22" s="89"/>
+      <c r="AF22" s="89"/>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A23" s="89">
+        <v>8</v>
+      </c>
+      <c r="B23" s="89"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="89">
+        <v>5019</v>
+      </c>
+      <c r="E23" s="89" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="90" t="s">
         <v>222</v>
       </c>
-      <c r="R4" s="100" t="s">
-        <v>221</v>
-      </c>
-      <c r="S4" s="100" t="s">
-        <v>220</v>
-      </c>
-      <c r="T4" s="100" t="s">
-        <v>219</v>
-      </c>
-      <c r="U4" s="100" t="s">
-        <v>218</v>
-      </c>
-      <c r="V4" s="100" t="s">
-        <v>217</v>
-      </c>
-      <c r="W4" s="100" t="s">
-        <v>216</v>
-      </c>
-      <c r="X4" s="100" t="s">
-        <v>215</v>
-      </c>
-      <c r="Y4" s="100" t="s">
-        <v>214</v>
-      </c>
-      <c r="Z4" s="100" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA4" s="100" t="s">
-        <v>212</v>
-      </c>
-      <c r="AB4" s="100" t="s">
-        <v>211</v>
-      </c>
-      <c r="AC4" s="100" t="s">
-        <v>210</v>
-      </c>
-      <c r="AD4" s="100" t="s">
-        <v>209</v>
-      </c>
-      <c r="AE4" s="100" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A5" s="100">
-        <v>2</v>
-      </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100" t="s">
-        <v>207</v>
-      </c>
-      <c r="D5" s="100" t="s">
-        <v>206</v>
-      </c>
-      <c r="E5" s="100" t="s">
-        <v>205</v>
-      </c>
-      <c r="F5" s="100" t="s">
-        <v>204</v>
-      </c>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="100"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="100"/>
-      <c r="R5" s="100"/>
-      <c r="S5" s="100"/>
-      <c r="T5" s="100"/>
-      <c r="U5" s="100"/>
-      <c r="V5" s="100"/>
-      <c r="W5" s="100"/>
-      <c r="X5" s="100"/>
-      <c r="Y5" s="100"/>
-      <c r="Z5" s="100">
-        <v>17</v>
-      </c>
-      <c r="AA5" s="100"/>
-      <c r="AB5" s="100"/>
-      <c r="AC5" s="100"/>
-      <c r="AD5" s="100"/>
-      <c r="AE5" s="100"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A6" s="100">
-        <v>6</v>
-      </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100" t="s">
-        <v>203</v>
-      </c>
-      <c r="D6" s="100" t="s">
-        <v>202</v>
-      </c>
-      <c r="E6" s="100" t="s">
-        <v>201</v>
-      </c>
-      <c r="F6" s="100" t="s">
-        <v>200</v>
-      </c>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
-      <c r="P6" s="100"/>
-      <c r="Q6" s="100"/>
-      <c r="R6" s="100"/>
-      <c r="S6" s="100"/>
-      <c r="T6" s="100"/>
-      <c r="U6" s="100"/>
-      <c r="V6" s="100"/>
-      <c r="W6" s="100"/>
-      <c r="X6" s="100"/>
-      <c r="Y6" s="100"/>
-      <c r="Z6" s="100">
-        <v>98</v>
-      </c>
-      <c r="AA6" s="100"/>
-      <c r="AB6" s="100"/>
-      <c r="AC6" s="100"/>
-      <c r="AD6" s="100"/>
-      <c r="AE6" s="100"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A7" s="100">
-        <v>4</v>
-      </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100" t="s">
-        <v>172</v>
-      </c>
-      <c r="D7" s="100" t="s">
-        <v>171</v>
-      </c>
-      <c r="E7" s="100" t="s">
-        <v>199</v>
-      </c>
-      <c r="F7" s="100" t="s">
-        <v>169</v>
-      </c>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
-      <c r="N7" s="100"/>
-      <c r="O7" s="100"/>
-      <c r="P7" s="100"/>
-      <c r="Q7" s="100"/>
-      <c r="R7" s="100"/>
-      <c r="S7" s="100"/>
-      <c r="T7" s="100"/>
-      <c r="U7" s="100"/>
-      <c r="V7" s="100"/>
-      <c r="W7" s="100"/>
-      <c r="X7" s="100"/>
-      <c r="Y7" s="100"/>
-      <c r="Z7" s="100">
-        <v>85</v>
-      </c>
-      <c r="AA7" s="100" t="s">
-        <v>168</v>
-      </c>
-      <c r="AB7" s="100"/>
-      <c r="AC7" s="100"/>
-      <c r="AD7" s="100"/>
-      <c r="AE7" s="100"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A8" s="100">
-        <v>2</v>
-      </c>
-      <c r="B8" s="100" t="s">
-        <v>198</v>
-      </c>
-      <c r="C8" s="100" t="s">
-        <v>184</v>
-      </c>
-      <c r="D8" s="100" t="s">
-        <v>183</v>
-      </c>
-      <c r="E8" s="100" t="s">
-        <v>197</v>
-      </c>
-      <c r="F8" s="100" t="s">
-        <v>181</v>
-      </c>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
-      <c r="N8" s="100"/>
-      <c r="O8" s="100"/>
-      <c r="P8" s="100"/>
-      <c r="Q8" s="100"/>
-      <c r="R8" s="100"/>
-      <c r="S8" s="100"/>
-      <c r="T8" s="100"/>
-      <c r="U8" s="100"/>
-      <c r="V8" s="100"/>
-      <c r="W8" s="100"/>
-      <c r="X8" s="100"/>
-      <c r="Y8" s="100"/>
-      <c r="Z8" s="100">
-        <v>54</v>
-      </c>
-      <c r="AA8" s="100" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB8" s="100"/>
-      <c r="AC8" s="100"/>
-      <c r="AD8" s="100"/>
-      <c r="AE8" s="100"/>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A9" s="100">
-        <v>2</v>
-      </c>
-      <c r="B9" s="100">
-        <v>0</v>
-      </c>
-      <c r="C9" s="100" t="s">
-        <v>172</v>
-      </c>
-      <c r="D9" s="100" t="s">
-        <v>171</v>
-      </c>
-      <c r="E9" s="100" t="s">
-        <v>196</v>
-      </c>
-      <c r="F9" s="100" t="s">
-        <v>169</v>
-      </c>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="100"/>
-      <c r="M9" s="100"/>
-      <c r="N9" s="100"/>
-      <c r="O9" s="100"/>
-      <c r="P9" s="100"/>
-      <c r="Q9" s="100"/>
-      <c r="R9" s="100"/>
-      <c r="S9" s="100"/>
-      <c r="T9" s="100"/>
-      <c r="U9" s="100"/>
-      <c r="V9" s="100"/>
-      <c r="W9" s="100"/>
-      <c r="X9" s="100"/>
-      <c r="Y9" s="100"/>
-      <c r="Z9" s="100">
-        <v>85</v>
-      </c>
-      <c r="AA9" s="100" t="s">
-        <v>168</v>
-      </c>
-      <c r="AB9" s="100"/>
-      <c r="AC9" s="100"/>
-      <c r="AD9" s="100"/>
-      <c r="AE9" s="100"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A10" s="100">
-        <v>2</v>
-      </c>
-      <c r="B10" s="100" t="s">
-        <v>195</v>
-      </c>
-      <c r="C10" s="100" t="s">
-        <v>184</v>
-      </c>
-      <c r="D10" s="100" t="s">
-        <v>183</v>
-      </c>
-      <c r="E10" s="100" t="s">
-        <v>194</v>
-      </c>
-      <c r="F10" s="100" t="s">
-        <v>181</v>
-      </c>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="100"/>
-      <c r="M10" s="100"/>
-      <c r="N10" s="100"/>
-      <c r="O10" s="100"/>
-      <c r="P10" s="100"/>
-      <c r="Q10" s="100"/>
-      <c r="R10" s="100"/>
-      <c r="S10" s="100"/>
-      <c r="T10" s="100"/>
-      <c r="U10" s="100"/>
-      <c r="V10" s="100"/>
-      <c r="W10" s="100"/>
-      <c r="X10" s="100"/>
-      <c r="Y10" s="100"/>
-      <c r="Z10" s="100">
-        <v>54</v>
-      </c>
-      <c r="AA10" s="100" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB10" s="100"/>
-      <c r="AC10" s="100"/>
-      <c r="AD10" s="100"/>
-      <c r="AE10" s="100"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A11" s="100">
-        <v>2</v>
-      </c>
-      <c r="B11" s="100" t="s">
-        <v>193</v>
-      </c>
-      <c r="C11" s="100" t="s">
-        <v>193</v>
-      </c>
-      <c r="D11" s="100" t="s">
-        <v>192</v>
-      </c>
-      <c r="E11" s="100" t="s">
-        <v>191</v>
-      </c>
-      <c r="F11" s="100" t="s">
-        <v>190</v>
-      </c>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="100"/>
-      <c r="M11" s="100"/>
-      <c r="N11" s="100"/>
-      <c r="O11" s="100"/>
-      <c r="P11" s="100"/>
-      <c r="Q11" s="100"/>
-      <c r="R11" s="100"/>
-      <c r="S11" s="100"/>
-      <c r="T11" s="100"/>
-      <c r="U11" s="100"/>
-      <c r="V11" s="100"/>
-      <c r="W11" s="100"/>
-      <c r="X11" s="100"/>
-      <c r="Y11" s="100"/>
-      <c r="Z11" s="100">
-        <v>82</v>
-      </c>
-      <c r="AA11" s="100"/>
-      <c r="AB11" s="100"/>
-      <c r="AC11" s="100"/>
-      <c r="AD11" s="100"/>
-      <c r="AE11" s="100"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A12" s="100">
-        <v>2</v>
-      </c>
-      <c r="B12" s="100" t="s">
-        <v>189</v>
-      </c>
-      <c r="C12" s="100" t="s">
-        <v>172</v>
-      </c>
-      <c r="D12" s="100" t="s">
-        <v>171</v>
-      </c>
-      <c r="E12" s="100" t="s">
-        <v>188</v>
-      </c>
-      <c r="F12" s="100" t="s">
-        <v>169</v>
-      </c>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="100"/>
-      <c r="M12" s="100"/>
-      <c r="N12" s="100"/>
-      <c r="O12" s="100"/>
-      <c r="P12" s="100"/>
-      <c r="Q12" s="100"/>
-      <c r="R12" s="100"/>
-      <c r="S12" s="100"/>
-      <c r="T12" s="100"/>
-      <c r="U12" s="100"/>
-      <c r="V12" s="100"/>
-      <c r="W12" s="100"/>
-      <c r="X12" s="100"/>
-      <c r="Y12" s="100"/>
-      <c r="Z12" s="100">
-        <v>85</v>
-      </c>
-      <c r="AA12" s="100" t="s">
-        <v>168</v>
-      </c>
-      <c r="AB12" s="100"/>
-      <c r="AC12" s="100"/>
-      <c r="AD12" s="100"/>
-      <c r="AE12" s="100"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A13" s="100">
-        <v>1</v>
-      </c>
-      <c r="B13" s="100" t="s">
-        <v>187</v>
-      </c>
-      <c r="C13" s="100" t="s">
-        <v>184</v>
-      </c>
-      <c r="D13" s="100" t="s">
-        <v>183</v>
-      </c>
-      <c r="E13" s="100" t="s">
-        <v>186</v>
-      </c>
-      <c r="F13" s="100" t="s">
-        <v>181</v>
-      </c>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="100"/>
-      <c r="N13" s="100"/>
-      <c r="O13" s="100"/>
-      <c r="P13" s="100"/>
-      <c r="Q13" s="100"/>
-      <c r="R13" s="100"/>
-      <c r="S13" s="100"/>
-      <c r="T13" s="100"/>
-      <c r="U13" s="100"/>
-      <c r="V13" s="100"/>
-      <c r="W13" s="100"/>
-      <c r="X13" s="100"/>
-      <c r="Y13" s="100"/>
-      <c r="Z13" s="100">
-        <v>54</v>
-      </c>
-      <c r="AA13" s="100" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB13" s="100"/>
-      <c r="AC13" s="100"/>
-      <c r="AD13" s="100"/>
-      <c r="AE13" s="100"/>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A14" s="100">
-        <v>2</v>
-      </c>
-      <c r="B14" s="100" t="s">
-        <v>185</v>
-      </c>
-      <c r="C14" s="100" t="s">
-        <v>184</v>
-      </c>
-      <c r="D14" s="100" t="s">
-        <v>183</v>
-      </c>
-      <c r="E14" s="100" t="s">
-        <v>182</v>
-      </c>
-      <c r="F14" s="100" t="s">
-        <v>181</v>
-      </c>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="100"/>
-      <c r="M14" s="100"/>
-      <c r="N14" s="100"/>
-      <c r="O14" s="100"/>
-      <c r="P14" s="100"/>
-      <c r="Q14" s="100"/>
-      <c r="R14" s="100"/>
-      <c r="S14" s="100"/>
-      <c r="T14" s="100"/>
-      <c r="U14" s="100"/>
-      <c r="V14" s="100"/>
-      <c r="W14" s="100"/>
-      <c r="X14" s="100"/>
-      <c r="Y14" s="100"/>
-      <c r="Z14" s="100">
-        <v>54</v>
-      </c>
-      <c r="AA14" s="100" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB14" s="100"/>
-      <c r="AC14" s="100"/>
-      <c r="AD14" s="100"/>
-      <c r="AE14" s="100"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A15" s="100">
-        <v>3</v>
-      </c>
-      <c r="B15" s="100" t="s">
-        <v>180</v>
-      </c>
-      <c r="C15" s="100" t="s">
-        <v>172</v>
-      </c>
-      <c r="D15" s="100" t="s">
-        <v>171</v>
-      </c>
-      <c r="E15" s="100" t="s">
-        <v>179</v>
-      </c>
-      <c r="F15" s="100" t="s">
-        <v>169</v>
-      </c>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="100"/>
-      <c r="J15" s="100"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="100"/>
-      <c r="M15" s="100"/>
-      <c r="N15" s="100"/>
-      <c r="O15" s="100"/>
-      <c r="P15" s="100"/>
-      <c r="Q15" s="100"/>
-      <c r="R15" s="100"/>
-      <c r="S15" s="100"/>
-      <c r="T15" s="100"/>
-      <c r="U15" s="100"/>
-      <c r="V15" s="100"/>
-      <c r="W15" s="100"/>
-      <c r="X15" s="100"/>
-      <c r="Y15" s="100"/>
-      <c r="Z15" s="100">
-        <v>85</v>
-      </c>
-      <c r="AA15" s="100" t="s">
-        <v>168</v>
-      </c>
-      <c r="AB15" s="100"/>
-      <c r="AC15" s="100"/>
-      <c r="AD15" s="100"/>
-      <c r="AE15" s="100"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A16" s="100">
-        <v>2</v>
-      </c>
-      <c r="B16" s="100" t="s">
-        <v>178</v>
-      </c>
-      <c r="C16" s="100" t="s">
-        <v>177</v>
-      </c>
-      <c r="D16" s="100" t="s">
-        <v>176</v>
-      </c>
-      <c r="E16" s="100" t="s">
-        <v>175</v>
-      </c>
-      <c r="F16" s="100" t="s">
-        <v>174</v>
-      </c>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="100"/>
-      <c r="M16" s="100"/>
-      <c r="N16" s="100"/>
-      <c r="O16" s="100"/>
-      <c r="P16" s="100"/>
-      <c r="Q16" s="100"/>
-      <c r="R16" s="100"/>
-      <c r="S16" s="100"/>
-      <c r="T16" s="100"/>
-      <c r="U16" s="100"/>
-      <c r="V16" s="100"/>
-      <c r="W16" s="100"/>
-      <c r="X16" s="100"/>
-      <c r="Y16" s="100"/>
-      <c r="Z16" s="100">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="100" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB16" s="100"/>
-      <c r="AC16" s="100"/>
-      <c r="AD16" s="100"/>
-      <c r="AE16" s="100"/>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A17" s="100">
-        <v>2</v>
-      </c>
-      <c r="B17" s="100">
-        <v>50</v>
-      </c>
-      <c r="C17" s="100" t="s">
-        <v>172</v>
-      </c>
-      <c r="D17" s="100" t="s">
-        <v>171</v>
-      </c>
-      <c r="E17" s="100" t="s">
-        <v>170</v>
-      </c>
-      <c r="F17" s="100" t="s">
-        <v>169</v>
-      </c>
-      <c r="G17" s="100"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="100"/>
-      <c r="J17" s="100"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="100"/>
-      <c r="M17" s="100"/>
-      <c r="N17" s="100"/>
-      <c r="O17" s="100"/>
-      <c r="P17" s="100"/>
-      <c r="Q17" s="100"/>
-      <c r="R17" s="100"/>
-      <c r="S17" s="100"/>
-      <c r="T17" s="100"/>
-      <c r="U17" s="100"/>
-      <c r="V17" s="100"/>
-      <c r="W17" s="100"/>
-      <c r="X17" s="100"/>
-      <c r="Y17" s="100"/>
-      <c r="Z17" s="100">
-        <v>85</v>
-      </c>
-      <c r="AA17" s="100" t="s">
-        <v>168</v>
-      </c>
-      <c r="AB17" s="100"/>
-      <c r="AC17" s="100"/>
-      <c r="AD17" s="100"/>
-      <c r="AE17" s="100"/>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A18" s="100">
-        <v>1</v>
-      </c>
-      <c r="B18" s="100"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100" t="s">
-        <v>167</v>
-      </c>
-      <c r="F18" s="100" t="s">
-        <v>166</v>
-      </c>
-      <c r="G18" s="100" t="s">
-        <v>165</v>
-      </c>
-      <c r="H18" s="100"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="100" t="s">
-        <v>164</v>
-      </c>
-      <c r="L18" s="100"/>
-      <c r="M18" s="100"/>
-      <c r="N18" s="100" t="s">
-        <v>163</v>
-      </c>
-      <c r="O18" s="100"/>
-      <c r="P18" s="100"/>
-      <c r="Q18" s="100"/>
-      <c r="R18" s="100" t="s">
-        <v>162</v>
-      </c>
-      <c r="S18" s="100"/>
-      <c r="T18" s="100"/>
-      <c r="U18" s="100"/>
-      <c r="V18" s="100" t="s">
-        <v>161</v>
-      </c>
-      <c r="W18" s="100"/>
-      <c r="X18" s="100">
-        <v>60312202111527</v>
-      </c>
-      <c r="Y18" s="100"/>
-      <c r="Z18" s="100"/>
-      <c r="AA18" s="100"/>
-      <c r="AB18" s="100"/>
-      <c r="AC18" s="100">
-        <v>60312202111527</v>
-      </c>
-      <c r="AD18" s="100"/>
-      <c r="AE18" s="100" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A19" s="100">
-        <v>2</v>
-      </c>
-      <c r="B19" s="100"/>
-      <c r="C19" s="100" t="s">
-        <v>159</v>
-      </c>
-      <c r="D19" s="100" t="s">
-        <v>159</v>
-      </c>
-      <c r="E19" s="100" t="s">
-        <v>158</v>
-      </c>
-      <c r="F19" s="100" t="s">
-        <v>157</v>
-      </c>
-      <c r="G19" s="100"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="100"/>
-      <c r="J19" s="100"/>
-      <c r="K19" s="100"/>
-      <c r="L19" s="100"/>
-      <c r="M19" s="100"/>
-      <c r="N19" s="100"/>
-      <c r="O19" s="100"/>
-      <c r="P19" s="100"/>
-      <c r="Q19" s="100"/>
-      <c r="R19" s="100"/>
-      <c r="S19" s="100" t="s">
-        <v>156</v>
-      </c>
-      <c r="T19" s="100" t="s">
-        <v>155</v>
-      </c>
-      <c r="U19" s="100" t="s">
-        <v>154</v>
-      </c>
-      <c r="V19" s="100"/>
-      <c r="W19" s="100"/>
-      <c r="X19" s="100"/>
-      <c r="Y19" s="100"/>
-      <c r="Z19" s="100">
-        <v>32</v>
-      </c>
-      <c r="AA19" s="100"/>
-      <c r="AB19" s="100"/>
-      <c r="AC19" s="100"/>
-      <c r="AD19" s="100"/>
-      <c r="AE19" s="100"/>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A20" s="100">
-        <v>1</v>
-      </c>
-      <c r="B20" s="100" t="s">
-        <v>145</v>
-      </c>
-      <c r="C20" s="100" t="s">
-        <v>145</v>
-      </c>
-      <c r="D20" s="100" t="s">
-        <v>153</v>
-      </c>
-      <c r="E20" s="100" t="s">
-        <v>152</v>
-      </c>
-      <c r="F20" s="100" t="s">
-        <v>151</v>
-      </c>
-      <c r="G20" s="100"/>
-      <c r="H20" s="100" t="s">
-        <v>150</v>
-      </c>
-      <c r="I20" s="100" t="s">
-        <v>149</v>
-      </c>
-      <c r="J20" s="100" t="s">
-        <v>148</v>
-      </c>
-      <c r="K20" s="100"/>
-      <c r="L20" s="100" t="s">
-        <v>147</v>
-      </c>
-      <c r="M20" s="100" t="s">
-        <v>146</v>
-      </c>
-      <c r="N20" s="100"/>
-      <c r="O20" s="100" t="s">
-        <v>143</v>
-      </c>
-      <c r="P20" s="100" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q20" s="100"/>
-      <c r="R20" s="100"/>
-      <c r="S20" s="100"/>
-      <c r="T20" s="100"/>
-      <c r="U20" s="100"/>
-      <c r="V20" s="100"/>
-      <c r="W20" s="100" t="s">
-        <v>144</v>
-      </c>
-      <c r="X20" s="100"/>
-      <c r="Y20" s="100">
-        <v>8</v>
-      </c>
-      <c r="Z20" s="100"/>
-      <c r="AA20" s="100"/>
-      <c r="AB20" s="100"/>
-      <c r="AC20" s="100"/>
-      <c r="AD20" s="100" t="s">
-        <v>143</v>
-      </c>
-      <c r="AE20" s="100"/>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A21" s="100">
-        <v>1</v>
-      </c>
-      <c r="B21" s="100" t="s">
-        <v>142</v>
-      </c>
-      <c r="C21" s="100" t="s">
-        <v>142</v>
-      </c>
-      <c r="D21" s="100" t="s">
-        <v>141</v>
-      </c>
-      <c r="E21" s="100" t="s">
-        <v>140</v>
-      </c>
-      <c r="F21" s="100" t="s">
-        <v>139</v>
-      </c>
-      <c r="G21" s="100"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="100"/>
-      <c r="J21" s="100"/>
-      <c r="K21" s="100"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="100"/>
-      <c r="N21" s="100"/>
-      <c r="O21" s="100"/>
-      <c r="P21" s="100"/>
-      <c r="Q21" s="100"/>
-      <c r="R21" s="100"/>
-      <c r="S21" s="100"/>
-      <c r="T21" s="100"/>
-      <c r="U21" s="100"/>
-      <c r="V21" s="100"/>
-      <c r="W21" s="100"/>
-      <c r="X21" s="100"/>
-      <c r="Y21" s="100"/>
-      <c r="Z21" s="100">
-        <v>6</v>
-      </c>
-      <c r="AA21" s="100"/>
-      <c r="AB21" s="100"/>
-      <c r="AC21" s="100"/>
-      <c r="AD21" s="100"/>
-      <c r="AE21" s="100"/>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A22" s="100">
-        <v>2</v>
-      </c>
-      <c r="B22" s="100"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100" t="s">
-        <v>138</v>
-      </c>
-      <c r="F22" s="100" t="s">
-        <v>134</v>
-      </c>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="100"/>
-      <c r="J22" s="100"/>
-      <c r="K22" s="100"/>
-      <c r="L22" s="100"/>
-      <c r="M22" s="100"/>
-      <c r="N22" s="100"/>
-      <c r="O22" s="100"/>
-      <c r="P22" s="100"/>
-      <c r="Q22" s="100"/>
-      <c r="R22" s="100"/>
-      <c r="S22" s="100"/>
-      <c r="T22" s="100"/>
-      <c r="U22" s="100"/>
-      <c r="V22" s="100"/>
-      <c r="W22" s="100"/>
-      <c r="X22" s="100"/>
-      <c r="Y22" s="100"/>
-      <c r="Z22" s="100">
-        <v>3</v>
-      </c>
-      <c r="AA22" s="100"/>
-      <c r="AB22" s="100"/>
-      <c r="AC22" s="100"/>
-      <c r="AD22" s="100"/>
-      <c r="AE22" s="100"/>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A23" s="100">
-        <v>8</v>
-      </c>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100">
-        <v>5019</v>
-      </c>
-      <c r="E23" s="100" t="s">
-        <v>135</v>
-      </c>
-      <c r="F23" s="101" t="s">
-        <v>239</v>
-      </c>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
-      <c r="K23" s="100"/>
-      <c r="L23" s="100"/>
-      <c r="M23" s="100"/>
-      <c r="N23" s="100"/>
-      <c r="O23" s="100"/>
-      <c r="P23" s="100"/>
-      <c r="Q23" s="100"/>
-      <c r="R23" s="100"/>
-      <c r="S23" s="100"/>
-      <c r="T23" s="100"/>
-      <c r="U23" s="100"/>
-      <c r="V23" s="100"/>
-      <c r="W23" s="100"/>
-      <c r="X23" s="100"/>
-      <c r="Y23" s="100"/>
-      <c r="Z23" s="100">
-        <v>2</v>
-      </c>
-      <c r="AA23" s="100"/>
-      <c r="AB23" s="100"/>
-      <c r="AC23" s="100"/>
-      <c r="AD23" s="100"/>
-      <c r="AE23" s="100"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="103" t="s">
+        <v>340</v>
+      </c>
+      <c r="I23" s="89"/>
+      <c r="J23" s="89"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="89"/>
+      <c r="M23" s="89"/>
+      <c r="N23" s="89"/>
+      <c r="O23" s="89"/>
+      <c r="P23" s="89"/>
+      <c r="Q23" s="89"/>
+      <c r="R23" s="89"/>
+      <c r="S23" s="89"/>
+      <c r="T23" s="89"/>
+      <c r="U23" s="89"/>
+      <c r="V23" s="89"/>
+      <c r="W23" s="89"/>
+      <c r="X23" s="89"/>
+      <c r="Y23" s="89"/>
+      <c r="Z23" s="89"/>
+      <c r="AA23" s="89"/>
+      <c r="AB23" s="89"/>
+      <c r="AC23" s="89"/>
+      <c r="AD23" s="89"/>
+      <c r="AE23" s="89"/>
+      <c r="AF23" s="89"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F23" r:id="rId1" xr:uid="{8F3FC205-D16F-49E1-AE81-81677CD15645}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -6867,653 +6940,653 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="89" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" s="89" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="89" t="s">
+        <v>219</v>
+      </c>
+      <c r="D3" s="89" t="s">
+        <v>218</v>
+      </c>
+      <c r="E3" s="89" t="s">
+        <v>217</v>
+      </c>
+      <c r="F3" s="89" t="s">
+        <v>216</v>
+      </c>
+      <c r="G3" s="89" t="s">
+        <v>269</v>
+      </c>
+      <c r="H3" s="89" t="s">
+        <v>209</v>
+      </c>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89" t="s">
+        <v>270</v>
+      </c>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="89">
+        <v>2</v>
+      </c>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" s="89" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" s="89" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="89">
+        <v>2</v>
+      </c>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89" t="s">
+        <v>268</v>
+      </c>
+      <c r="D5" s="89" t="s">
+        <v>267</v>
+      </c>
+      <c r="E5" s="89" t="s">
+        <v>266</v>
+      </c>
+      <c r="F5" s="89" t="s">
+        <v>165</v>
+      </c>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="89"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="89">
+        <v>4</v>
+      </c>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89" t="s">
+        <v>265</v>
+      </c>
+      <c r="D6" s="89" t="s">
+        <v>264</v>
+      </c>
+      <c r="E6" s="89" t="s">
+        <v>263</v>
+      </c>
+      <c r="F6" s="89" t="s">
+        <v>181</v>
+      </c>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="89"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="89"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="89">
+        <v>2</v>
+      </c>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89" t="s">
+        <v>262</v>
+      </c>
+      <c r="D7" s="89" t="s">
+        <v>261</v>
+      </c>
+      <c r="E7" s="89" t="s">
+        <v>196</v>
+      </c>
+      <c r="F7" s="89" t="s">
+        <v>195</v>
+      </c>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="89"/>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="89"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="89">
+        <v>1</v>
+      </c>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89" t="s">
+        <v>260</v>
+      </c>
+      <c r="D8" s="89" t="s">
+        <v>259</v>
+      </c>
+      <c r="E8" s="89" t="s">
+        <v>258</v>
+      </c>
+      <c r="F8" s="89" t="s">
+        <v>257</v>
+      </c>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="89">
+        <v>1</v>
+      </c>
+      <c r="B9" s="89"/>
+      <c r="C9" s="89" t="s">
+        <v>256</v>
+      </c>
+      <c r="D9" s="89" t="s">
+        <v>256</v>
+      </c>
+      <c r="E9" s="89" t="s">
+        <v>255</v>
+      </c>
+      <c r="F9" s="89" t="s">
+        <v>153</v>
+      </c>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="89"/>
+      <c r="Q9" s="89"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="89">
+        <v>2</v>
+      </c>
+      <c r="B10" s="89">
+        <v>0</v>
+      </c>
+      <c r="C10" s="89" t="s">
+        <v>225</v>
+      </c>
+      <c r="D10" s="89" t="s">
+        <v>224</v>
+      </c>
+      <c r="E10" s="89" t="s">
+        <v>254</v>
+      </c>
+      <c r="F10" s="89" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="89"/>
+      <c r="Q10" s="89"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="89">
+        <v>2</v>
+      </c>
+      <c r="B11" s="89" t="s">
+        <v>253</v>
+      </c>
+      <c r="C11" s="89" t="s">
+        <v>225</v>
+      </c>
+      <c r="D11" s="89" t="s">
+        <v>224</v>
+      </c>
+      <c r="E11" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="F11" s="89" t="s">
+        <v>160</v>
+      </c>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="89"/>
+      <c r="O11" s="89"/>
+      <c r="P11" s="89"/>
+      <c r="Q11" s="89"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="89">
+        <v>2</v>
+      </c>
+      <c r="B12" s="89" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" s="89" t="s">
+        <v>237</v>
+      </c>
+      <c r="D12" s="89" t="s">
+        <v>236</v>
+      </c>
+      <c r="E12" s="89" t="s">
+        <v>251</v>
+      </c>
+      <c r="F12" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="89"/>
+      <c r="N12" s="89"/>
+      <c r="O12" s="89"/>
+      <c r="P12" s="89"/>
+      <c r="Q12" s="89"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="89">
+        <v>8</v>
+      </c>
+      <c r="B13" s="89" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="89" t="s">
+        <v>174</v>
+      </c>
+      <c r="E13" s="89" t="s">
+        <v>250</v>
+      </c>
+      <c r="F13" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="89"/>
+      <c r="P13" s="89"/>
+      <c r="Q13" s="89"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="89">
+        <v>2</v>
+      </c>
+      <c r="B14" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="89" t="s">
+        <v>225</v>
+      </c>
+      <c r="D14" s="89" t="s">
+        <v>224</v>
+      </c>
+      <c r="E14" s="89" t="s">
+        <v>249</v>
+      </c>
+      <c r="F14" s="89" t="s">
+        <v>160</v>
+      </c>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="89"/>
+      <c r="N14" s="89"/>
+      <c r="O14" s="89"/>
+      <c r="P14" s="89"/>
+      <c r="Q14" s="89"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="89">
+        <v>4</v>
+      </c>
+      <c r="B15" s="89" t="s">
+        <v>248</v>
+      </c>
+      <c r="C15" s="89" t="s">
+        <v>247</v>
+      </c>
+      <c r="D15" s="89" t="s">
+        <v>246</v>
+      </c>
+      <c r="E15" s="89" t="s">
+        <v>245</v>
+      </c>
+      <c r="F15" s="89" t="s">
+        <v>244</v>
+      </c>
+      <c r="G15" s="89"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="89"/>
+      <c r="N15" s="89"/>
+      <c r="O15" s="89"/>
+      <c r="P15" s="89"/>
+      <c r="Q15" s="89"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="89">
+        <v>1</v>
+      </c>
+      <c r="B16" s="89" t="s">
+        <v>243</v>
+      </c>
+      <c r="C16" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" s="89" t="s">
+        <v>174</v>
+      </c>
+      <c r="E16" s="89" t="s">
+        <v>242</v>
+      </c>
+      <c r="F16" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="89"/>
+      <c r="N16" s="89"/>
+      <c r="O16" s="89"/>
+      <c r="P16" s="89"/>
+      <c r="Q16" s="89"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="89">
+        <v>1</v>
+      </c>
+      <c r="B17" s="89" t="s">
+        <v>241</v>
+      </c>
+      <c r="C17" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="D17" s="89" t="s">
+        <v>174</v>
+      </c>
+      <c r="E17" s="89" t="s">
+        <v>240</v>
+      </c>
+      <c r="F17" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="89"/>
+      <c r="O17" s="89"/>
+      <c r="P17" s="89"/>
+      <c r="Q17" s="89"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="89">
+        <v>8</v>
+      </c>
+      <c r="B18" s="89">
+        <v>470</v>
+      </c>
+      <c r="C18" s="89" t="s">
+        <v>225</v>
+      </c>
+      <c r="D18" s="89" t="s">
+        <v>224</v>
+      </c>
+      <c r="E18" s="89" t="s">
+        <v>239</v>
+      </c>
+      <c r="F18" s="89" t="s">
+        <v>160</v>
+      </c>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="89"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="89"/>
+      <c r="N18" s="89"/>
+      <c r="O18" s="89"/>
+      <c r="P18" s="89"/>
+      <c r="Q18" s="89"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="89">
+        <v>2</v>
+      </c>
+      <c r="B19" s="89" t="s">
         <v>238</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="C19" s="89" t="s">
         <v>237</v>
       </c>
-      <c r="C3" s="100" t="s">
+      <c r="D19" s="89" t="s">
         <v>236</v>
       </c>
-      <c r="D3" s="100" t="s">
+      <c r="E19" s="89" t="s">
         <v>235</v>
       </c>
-      <c r="E3" s="100" t="s">
+      <c r="F19" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="89"/>
+      <c r="O19" s="89"/>
+      <c r="P19" s="89"/>
+      <c r="Q19" s="89"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="89">
+        <v>4</v>
+      </c>
+      <c r="B20" s="89" t="s">
         <v>234</v>
       </c>
-      <c r="F3" s="100" t="s">
+      <c r="C20" s="89" t="s">
+        <v>234</v>
+      </c>
+      <c r="D20" s="89" t="s">
+        <v>234</v>
+      </c>
+      <c r="E20" s="89" t="s">
         <v>233</v>
       </c>
-      <c r="G3" s="100" t="s">
-        <v>286</v>
-      </c>
-      <c r="H3" s="100" t="s">
+      <c r="F20" s="89" t="s">
+        <v>232</v>
+      </c>
+      <c r="G20" s="89"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="89"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="89"/>
+      <c r="N20" s="89"/>
+      <c r="O20" s="89"/>
+      <c r="P20" s="89"/>
+      <c r="Q20" s="89"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="89">
+        <v>1</v>
+      </c>
+      <c r="B21" s="89" t="s">
+        <v>231</v>
+      </c>
+      <c r="C21" s="89" t="s">
+        <v>231</v>
+      </c>
+      <c r="D21" s="89" t="s">
+        <v>230</v>
+      </c>
+      <c r="E21" s="89" t="s">
+        <v>148</v>
+      </c>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89" t="s">
+        <v>229</v>
+      </c>
+      <c r="H21" s="89" t="s">
+        <v>228</v>
+      </c>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89" t="s">
+        <v>271</v>
+      </c>
+      <c r="K21" s="89"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="89"/>
+      <c r="N21" s="89"/>
+      <c r="O21" s="89"/>
+      <c r="P21" s="89"/>
+      <c r="Q21" s="89"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="89">
+        <v>11</v>
+      </c>
+      <c r="B22" s="89" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="89" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" s="89" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="F22" s="89" t="s">
+        <v>134</v>
+      </c>
+      <c r="G22" s="89"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="89"/>
+      <c r="L22" s="89"/>
+      <c r="M22" s="89"/>
+      <c r="N22" s="89"/>
+      <c r="O22" s="89"/>
+      <c r="P22" s="89"/>
+      <c r="Q22" s="89"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="89">
+        <v>2</v>
+      </c>
+      <c r="B23" s="89" t="s">
+        <v>226</v>
+      </c>
+      <c r="C23" s="89" t="s">
+        <v>225</v>
+      </c>
+      <c r="D23" s="89" t="s">
+        <v>224</v>
+      </c>
+      <c r="E23" s="89" t="s">
         <v>223</v>
       </c>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100" t="s">
-        <v>287</v>
-      </c>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="100">
-        <v>2</v>
-      </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100" t="s">
-        <v>184</v>
-      </c>
-      <c r="D4" s="100" t="s">
-        <v>183</v>
-      </c>
-      <c r="E4" s="100" t="s">
-        <v>182</v>
-      </c>
-      <c r="F4" s="100" t="s">
-        <v>181</v>
-      </c>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="100"/>
-      <c r="Q4" s="100"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="100">
-        <v>2</v>
-      </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100" t="s">
-        <v>285</v>
-      </c>
-      <c r="D5" s="100" t="s">
-        <v>284</v>
-      </c>
-      <c r="E5" s="100" t="s">
-        <v>283</v>
-      </c>
-      <c r="F5" s="100" t="s">
-        <v>174</v>
-      </c>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="100"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="100"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="100">
-        <v>4</v>
-      </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100" t="s">
-        <v>282</v>
-      </c>
-      <c r="D6" s="100" t="s">
-        <v>281</v>
-      </c>
-      <c r="E6" s="100" t="s">
-        <v>280</v>
-      </c>
-      <c r="F6" s="100" t="s">
-        <v>190</v>
-      </c>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
-      <c r="P6" s="100"/>
-      <c r="Q6" s="100"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="100">
-        <v>2</v>
-      </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100" t="s">
-        <v>279</v>
-      </c>
-      <c r="D7" s="100" t="s">
-        <v>278</v>
-      </c>
-      <c r="E7" s="100" t="s">
-        <v>205</v>
-      </c>
-      <c r="F7" s="100" t="s">
-        <v>204</v>
-      </c>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
-      <c r="N7" s="100"/>
-      <c r="O7" s="100"/>
-      <c r="P7" s="100"/>
-      <c r="Q7" s="100"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="100">
-        <v>1</v>
-      </c>
-      <c r="B8" s="100"/>
-      <c r="C8" s="100" t="s">
-        <v>277</v>
-      </c>
-      <c r="D8" s="100" t="s">
-        <v>276</v>
-      </c>
-      <c r="E8" s="100" t="s">
-        <v>275</v>
-      </c>
-      <c r="F8" s="100" t="s">
-        <v>274</v>
-      </c>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
-      <c r="N8" s="100"/>
-      <c r="O8" s="100"/>
-      <c r="P8" s="100"/>
-      <c r="Q8" s="100"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="100">
-        <v>1</v>
-      </c>
-      <c r="B9" s="100"/>
-      <c r="C9" s="100" t="s">
-        <v>273</v>
-      </c>
-      <c r="D9" s="100" t="s">
-        <v>273</v>
-      </c>
-      <c r="E9" s="100" t="s">
-        <v>272</v>
-      </c>
-      <c r="F9" s="100" t="s">
-        <v>157</v>
-      </c>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="100"/>
-      <c r="M9" s="100"/>
-      <c r="N9" s="100"/>
-      <c r="O9" s="100"/>
-      <c r="P9" s="100"/>
-      <c r="Q9" s="100"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="100">
-        <v>2</v>
-      </c>
-      <c r="B10" s="100">
-        <v>0</v>
-      </c>
-      <c r="C10" s="100" t="s">
-        <v>242</v>
-      </c>
-      <c r="D10" s="100" t="s">
-        <v>241</v>
-      </c>
-      <c r="E10" s="100" t="s">
-        <v>271</v>
-      </c>
-      <c r="F10" s="100" t="s">
-        <v>169</v>
-      </c>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="100"/>
-      <c r="M10" s="100"/>
-      <c r="N10" s="100"/>
-      <c r="O10" s="100"/>
-      <c r="P10" s="100"/>
-      <c r="Q10" s="100"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="100">
-        <v>2</v>
-      </c>
-      <c r="B11" s="100" t="s">
-        <v>270</v>
-      </c>
-      <c r="C11" s="100" t="s">
-        <v>242</v>
-      </c>
-      <c r="D11" s="100" t="s">
-        <v>241</v>
-      </c>
-      <c r="E11" s="100" t="s">
-        <v>269</v>
-      </c>
-      <c r="F11" s="100" t="s">
-        <v>169</v>
-      </c>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="100"/>
-      <c r="M11" s="100"/>
-      <c r="N11" s="100"/>
-      <c r="O11" s="100"/>
-      <c r="P11" s="100"/>
-      <c r="Q11" s="100"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="100">
-        <v>2</v>
-      </c>
-      <c r="B12" s="100" t="s">
-        <v>195</v>
-      </c>
-      <c r="C12" s="100" t="s">
-        <v>254</v>
-      </c>
-      <c r="D12" s="100" t="s">
-        <v>253</v>
-      </c>
-      <c r="E12" s="100" t="s">
-        <v>268</v>
-      </c>
-      <c r="F12" s="100" t="s">
-        <v>181</v>
-      </c>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="100"/>
-      <c r="M12" s="100"/>
-      <c r="N12" s="100"/>
-      <c r="O12" s="100"/>
-      <c r="P12" s="100"/>
-      <c r="Q12" s="100"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="100">
-        <v>8</v>
-      </c>
-      <c r="B13" s="100" t="s">
-        <v>187</v>
-      </c>
-      <c r="C13" s="100" t="s">
-        <v>184</v>
-      </c>
-      <c r="D13" s="100" t="s">
-        <v>183</v>
-      </c>
-      <c r="E13" s="100" t="s">
-        <v>267</v>
-      </c>
-      <c r="F13" s="100" t="s">
-        <v>181</v>
-      </c>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="100"/>
-      <c r="N13" s="100"/>
-      <c r="O13" s="100"/>
-      <c r="P13" s="100"/>
-      <c r="Q13" s="100"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="100">
-        <v>2</v>
-      </c>
-      <c r="B14" s="100" t="s">
-        <v>180</v>
-      </c>
-      <c r="C14" s="100" t="s">
-        <v>242</v>
-      </c>
-      <c r="D14" s="100" t="s">
-        <v>241</v>
-      </c>
-      <c r="E14" s="100" t="s">
-        <v>266</v>
-      </c>
-      <c r="F14" s="100" t="s">
-        <v>169</v>
-      </c>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="100"/>
-      <c r="M14" s="100"/>
-      <c r="N14" s="100"/>
-      <c r="O14" s="100"/>
-      <c r="P14" s="100"/>
-      <c r="Q14" s="100"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="100">
-        <v>4</v>
-      </c>
-      <c r="B15" s="100" t="s">
-        <v>265</v>
-      </c>
-      <c r="C15" s="100" t="s">
-        <v>264</v>
-      </c>
-      <c r="D15" s="100" t="s">
-        <v>263</v>
-      </c>
-      <c r="E15" s="100" t="s">
-        <v>262</v>
-      </c>
-      <c r="F15" s="100" t="s">
-        <v>261</v>
-      </c>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="100"/>
-      <c r="J15" s="100"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="100"/>
-      <c r="M15" s="100"/>
-      <c r="N15" s="100"/>
-      <c r="O15" s="100"/>
-      <c r="P15" s="100"/>
-      <c r="Q15" s="100"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="100">
-        <v>1</v>
-      </c>
-      <c r="B16" s="100" t="s">
-        <v>260</v>
-      </c>
-      <c r="C16" s="100" t="s">
-        <v>184</v>
-      </c>
-      <c r="D16" s="100" t="s">
-        <v>183</v>
-      </c>
-      <c r="E16" s="100" t="s">
-        <v>259</v>
-      </c>
-      <c r="F16" s="100" t="s">
-        <v>181</v>
-      </c>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="100"/>
-      <c r="M16" s="100"/>
-      <c r="N16" s="100"/>
-      <c r="O16" s="100"/>
-      <c r="P16" s="100"/>
-      <c r="Q16" s="100"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="100">
-        <v>1</v>
-      </c>
-      <c r="B17" s="100" t="s">
-        <v>258</v>
-      </c>
-      <c r="C17" s="100" t="s">
-        <v>184</v>
-      </c>
-      <c r="D17" s="100" t="s">
-        <v>183</v>
-      </c>
-      <c r="E17" s="100" t="s">
-        <v>257</v>
-      </c>
-      <c r="F17" s="100" t="s">
-        <v>181</v>
-      </c>
-      <c r="G17" s="100"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="100"/>
-      <c r="J17" s="100"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="100"/>
-      <c r="M17" s="100"/>
-      <c r="N17" s="100"/>
-      <c r="O17" s="100"/>
-      <c r="P17" s="100"/>
-      <c r="Q17" s="100"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="100">
-        <v>8</v>
-      </c>
-      <c r="B18" s="100">
-        <v>470</v>
-      </c>
-      <c r="C18" s="100" t="s">
-        <v>242</v>
-      </c>
-      <c r="D18" s="100" t="s">
-        <v>241</v>
-      </c>
-      <c r="E18" s="100" t="s">
-        <v>256</v>
-      </c>
-      <c r="F18" s="100" t="s">
-        <v>169</v>
-      </c>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="100"/>
-      <c r="M18" s="100"/>
-      <c r="N18" s="100"/>
-      <c r="O18" s="100"/>
-      <c r="P18" s="100"/>
-      <c r="Q18" s="100"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="100">
-        <v>2</v>
-      </c>
-      <c r="B19" s="100" t="s">
-        <v>255</v>
-      </c>
-      <c r="C19" s="100" t="s">
-        <v>254</v>
-      </c>
-      <c r="D19" s="100" t="s">
-        <v>253</v>
-      </c>
-      <c r="E19" s="100" t="s">
-        <v>252</v>
-      </c>
-      <c r="F19" s="100" t="s">
-        <v>181</v>
-      </c>
-      <c r="G19" s="100"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="100"/>
-      <c r="J19" s="100"/>
-      <c r="K19" s="100"/>
-      <c r="L19" s="100"/>
-      <c r="M19" s="100"/>
-      <c r="N19" s="100"/>
-      <c r="O19" s="100"/>
-      <c r="P19" s="100"/>
-      <c r="Q19" s="100"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="100">
-        <v>4</v>
-      </c>
-      <c r="B20" s="100" t="s">
-        <v>251</v>
-      </c>
-      <c r="C20" s="100" t="s">
-        <v>251</v>
-      </c>
-      <c r="D20" s="100" t="s">
-        <v>251</v>
-      </c>
-      <c r="E20" s="100" t="s">
-        <v>250</v>
-      </c>
-      <c r="F20" s="100" t="s">
-        <v>249</v>
-      </c>
-      <c r="G20" s="100"/>
-      <c r="H20" s="100"/>
-      <c r="I20" s="100"/>
-      <c r="J20" s="100"/>
-      <c r="K20" s="100"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="100"/>
-      <c r="N20" s="100"/>
-      <c r="O20" s="100"/>
-      <c r="P20" s="100"/>
-      <c r="Q20" s="100"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="100">
-        <v>1</v>
-      </c>
-      <c r="B21" s="100" t="s">
-        <v>248</v>
-      </c>
-      <c r="C21" s="100" t="s">
-        <v>248</v>
-      </c>
-      <c r="D21" s="100" t="s">
-        <v>247</v>
-      </c>
-      <c r="E21" s="100" t="s">
-        <v>152</v>
-      </c>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100" t="s">
-        <v>246</v>
-      </c>
-      <c r="H21" s="100" t="s">
-        <v>245</v>
-      </c>
-      <c r="I21" s="100"/>
-      <c r="J21" s="100" t="s">
-        <v>288</v>
-      </c>
-      <c r="K21" s="100"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="100"/>
-      <c r="N21" s="100"/>
-      <c r="O21" s="100"/>
-      <c r="P21" s="100"/>
-      <c r="Q21" s="100"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="100">
-        <v>11</v>
-      </c>
-      <c r="B22" s="100" t="s">
-        <v>137</v>
-      </c>
-      <c r="C22" s="100" t="s">
-        <v>137</v>
-      </c>
-      <c r="D22" s="100" t="s">
-        <v>136</v>
-      </c>
-      <c r="E22" s="100" t="s">
-        <v>244</v>
-      </c>
-      <c r="F22" s="100" t="s">
-        <v>134</v>
-      </c>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="100"/>
-      <c r="J22" s="100"/>
-      <c r="K22" s="100"/>
-      <c r="L22" s="100"/>
-      <c r="M22" s="100"/>
-      <c r="N22" s="100"/>
-      <c r="O22" s="100"/>
-      <c r="P22" s="100"/>
-      <c r="Q22" s="100"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="100">
-        <v>2</v>
-      </c>
-      <c r="B23" s="100" t="s">
-        <v>243</v>
-      </c>
-      <c r="C23" s="100" t="s">
-        <v>242</v>
-      </c>
-      <c r="D23" s="100" t="s">
-        <v>241</v>
-      </c>
-      <c r="E23" s="100" t="s">
-        <v>240</v>
-      </c>
-      <c r="F23" s="100" t="s">
-        <v>169</v>
-      </c>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
-      <c r="K23" s="100"/>
-      <c r="L23" s="100"/>
-      <c r="M23" s="100"/>
-      <c r="N23" s="100"/>
-      <c r="O23" s="100"/>
-      <c r="P23" s="100"/>
-      <c r="Q23" s="100"/>
+      <c r="F23" s="89" t="s">
+        <v>160</v>
+      </c>
+      <c r="G23" s="89"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="89"/>
+      <c r="J23" s="89"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="89"/>
+      <c r="M23" s="89"/>
+      <c r="N23" s="89"/>
+      <c r="O23" s="89"/>
+      <c r="P23" s="89"/>
+      <c r="Q23" s="89"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7524,982 +7597,982 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73407446-8DFB-4FFB-8CD1-41FF2878293B}">
   <dimension ref="A2:W24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2" s="100" t="s">
-        <v>238</v>
-      </c>
-      <c r="B2" s="100" t="s">
-        <v>237</v>
-      </c>
-      <c r="C2" s="100" t="s">
-        <v>236</v>
-      </c>
-      <c r="D2" s="100" t="s">
-        <v>235</v>
-      </c>
-      <c r="E2" s="100" t="s">
-        <v>234</v>
-      </c>
-      <c r="F2" s="100" t="s">
-        <v>233</v>
-      </c>
-      <c r="G2" s="100" t="s">
-        <v>231</v>
-      </c>
-      <c r="H2" s="100" t="s">
-        <v>230</v>
-      </c>
-      <c r="I2" s="100" t="s">
-        <v>229</v>
-      </c>
-      <c r="J2" s="100" t="s">
+      <c r="A2" s="89" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="89" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="89" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" s="89" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2" s="89" t="s">
+        <v>217</v>
+      </c>
+      <c r="F2" s="89" t="s">
+        <v>216</v>
+      </c>
+      <c r="G2" s="89" t="s">
+        <v>215</v>
+      </c>
+      <c r="H2" s="89" t="s">
+        <v>214</v>
+      </c>
+      <c r="I2" s="89" t="s">
+        <v>213</v>
+      </c>
+      <c r="J2" s="89" t="s">
+        <v>212</v>
+      </c>
+      <c r="K2" s="89" t="s">
+        <v>211</v>
+      </c>
+      <c r="L2" s="89" t="s">
+        <v>210</v>
+      </c>
+      <c r="M2" s="89" t="s">
+        <v>209</v>
+      </c>
+      <c r="N2" s="89" t="s">
+        <v>208</v>
+      </c>
+      <c r="O2" s="89" t="s">
+        <v>207</v>
+      </c>
+      <c r="P2" s="89" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q2" s="89" t="s">
+        <v>205</v>
+      </c>
+      <c r="R2" s="89" t="s">
+        <v>204</v>
+      </c>
+      <c r="S2" s="89" t="s">
+        <v>203</v>
+      </c>
+      <c r="T2" s="89" t="s">
+        <v>202</v>
+      </c>
+      <c r="U2" s="89" t="s">
+        <v>201</v>
+      </c>
+      <c r="V2" s="89" t="s">
+        <v>200</v>
+      </c>
+      <c r="W2" s="89" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" s="89">
+        <v>1</v>
+      </c>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89" t="s">
+        <v>330</v>
+      </c>
+      <c r="D3" s="89" t="s">
+        <v>329</v>
+      </c>
+      <c r="E3" s="89" t="s">
+        <v>328</v>
+      </c>
+      <c r="F3" s="89" t="s">
+        <v>195</v>
+      </c>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="89"/>
+      <c r="S3" s="89"/>
+      <c r="T3" s="89">
+        <v>52</v>
+      </c>
+      <c r="U3" s="89"/>
+      <c r="V3" s="89"/>
+      <c r="W3" s="89"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" s="89">
+        <v>2</v>
+      </c>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" s="89" t="s">
+        <v>327</v>
+      </c>
+      <c r="F4" s="89" t="s">
+        <v>191</v>
+      </c>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="89">
+        <v>98</v>
+      </c>
+      <c r="U4" s="89"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="89"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" s="89">
+        <v>3</v>
+      </c>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" s="89" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" s="89" t="s">
+        <v>326</v>
+      </c>
+      <c r="F5" s="89" t="s">
+        <v>153</v>
+      </c>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89" t="s">
+        <v>152</v>
+      </c>
+      <c r="P5" s="89" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q5" s="89" t="s">
+        <v>150</v>
+      </c>
+      <c r="R5" s="89"/>
+      <c r="S5" s="89"/>
+      <c r="T5" s="89">
+        <v>32</v>
+      </c>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
+      <c r="W5" s="89"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" s="89">
+        <v>8</v>
+      </c>
+      <c r="B6" s="89" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="89" t="s">
+        <v>174</v>
+      </c>
+      <c r="E6" s="89" t="s">
+        <v>325</v>
+      </c>
+      <c r="F6" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="89"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="89"/>
+      <c r="R6" s="89"/>
+      <c r="S6" s="89"/>
+      <c r="T6" s="89">
+        <v>54</v>
+      </c>
+      <c r="U6" s="89" t="s">
+        <v>164</v>
+      </c>
+      <c r="V6" s="89"/>
+      <c r="W6" s="89"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" s="89">
+        <v>1</v>
+      </c>
+      <c r="B7" s="89">
+        <v>0.1</v>
+      </c>
+      <c r="C7" s="89" t="s">
+        <v>324</v>
+      </c>
+      <c r="D7" s="89" t="s">
+        <v>323</v>
+      </c>
+      <c r="E7" s="89" t="s">
+        <v>322</v>
+      </c>
+      <c r="F7" s="89" t="s">
+        <v>321</v>
+      </c>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="89"/>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="89"/>
+      <c r="R7" s="89"/>
+      <c r="S7" s="89"/>
+      <c r="T7" s="89">
+        <v>0</v>
+      </c>
+      <c r="U7" s="89" t="s">
+        <v>159</v>
+      </c>
+      <c r="V7" s="89"/>
+      <c r="W7" s="89"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" s="89">
+        <v>1</v>
+      </c>
+      <c r="B8" s="89" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8" s="89" t="s">
+        <v>225</v>
+      </c>
+      <c r="D8" s="89" t="s">
+        <v>224</v>
+      </c>
+      <c r="E8" s="89" t="s">
+        <v>320</v>
+      </c>
+      <c r="F8" s="89" t="s">
+        <v>160</v>
+      </c>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="89"/>
+      <c r="S8" s="89"/>
+      <c r="T8" s="89">
+        <v>19</v>
+      </c>
+      <c r="U8" s="89" t="s">
+        <v>159</v>
+      </c>
+      <c r="V8" s="89"/>
+      <c r="W8" s="89"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9" s="89">
+        <v>1</v>
+      </c>
+      <c r="B9" s="89" t="s">
+        <v>319</v>
+      </c>
+      <c r="C9" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" s="89" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" s="89" t="s">
+        <v>318</v>
+      </c>
+      <c r="F9" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="89"/>
+      <c r="Q9" s="89"/>
+      <c r="R9" s="89"/>
+      <c r="S9" s="89"/>
+      <c r="T9" s="89">
+        <v>54</v>
+      </c>
+      <c r="U9" s="89" t="s">
+        <v>164</v>
+      </c>
+      <c r="V9" s="89"/>
+      <c r="W9" s="89"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" s="89">
+        <v>1</v>
+      </c>
+      <c r="B10" s="89" t="s">
+        <v>317</v>
+      </c>
+      <c r="C10" s="89" t="s">
+        <v>316</v>
+      </c>
+      <c r="D10" s="89" t="s">
+        <v>315</v>
+      </c>
+      <c r="E10" s="89" t="s">
+        <v>240</v>
+      </c>
+      <c r="F10" s="89" t="s">
+        <v>314</v>
+      </c>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="89"/>
+      <c r="Q10" s="89"/>
+      <c r="R10" s="89"/>
+      <c r="S10" s="89"/>
+      <c r="T10" s="89">
+        <v>0</v>
+      </c>
+      <c r="U10" s="89" t="s">
+        <v>164</v>
+      </c>
+      <c r="V10" s="89"/>
+      <c r="W10" s="89"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" s="89">
+        <v>1</v>
+      </c>
+      <c r="B11" s="89" t="s">
+        <v>313</v>
+      </c>
+      <c r="C11" s="89" t="s">
+        <v>304</v>
+      </c>
+      <c r="D11" s="89" t="s">
+        <v>303</v>
+      </c>
+      <c r="E11" s="89" t="s">
+        <v>312</v>
+      </c>
+      <c r="F11" s="89" t="s">
+        <v>301</v>
+      </c>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="89"/>
+      <c r="O11" s="89"/>
+      <c r="P11" s="89"/>
+      <c r="Q11" s="89"/>
+      <c r="R11" s="89"/>
+      <c r="S11" s="89"/>
+      <c r="T11" s="89"/>
+      <c r="U11" s="89"/>
+      <c r="V11" s="89"/>
+      <c r="W11" s="89"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" s="89">
+        <v>1</v>
+      </c>
+      <c r="B12" s="89" t="s">
+        <v>311</v>
+      </c>
+      <c r="C12" s="89" t="s">
+        <v>225</v>
+      </c>
+      <c r="D12" s="89" t="s">
+        <v>224</v>
+      </c>
+      <c r="E12" s="89" t="s">
+        <v>310</v>
+      </c>
+      <c r="F12" s="89" t="s">
+        <v>160</v>
+      </c>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="89"/>
+      <c r="N12" s="89"/>
+      <c r="O12" s="89"/>
+      <c r="P12" s="89"/>
+      <c r="Q12" s="89"/>
+      <c r="R12" s="89"/>
+      <c r="S12" s="89"/>
+      <c r="T12" s="89">
+        <v>19</v>
+      </c>
+      <c r="U12" s="89" t="s">
+        <v>159</v>
+      </c>
+      <c r="V12" s="89"/>
+      <c r="W12" s="89"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13" s="89">
+        <v>1</v>
+      </c>
+      <c r="B13" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="89" t="s">
+        <v>174</v>
+      </c>
+      <c r="E13" s="89" t="s">
+        <v>309</v>
+      </c>
+      <c r="F13" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="89"/>
+      <c r="P13" s="89"/>
+      <c r="Q13" s="89"/>
+      <c r="R13" s="89"/>
+      <c r="S13" s="89"/>
+      <c r="T13" s="89">
+        <v>54</v>
+      </c>
+      <c r="U13" s="89" t="s">
+        <v>164</v>
+      </c>
+      <c r="V13" s="89"/>
+      <c r="W13" s="89"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" s="89">
+        <v>9</v>
+      </c>
+      <c r="B14" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="89" t="s">
+        <v>225</v>
+      </c>
+      <c r="D14" s="89" t="s">
+        <v>224</v>
+      </c>
+      <c r="E14" s="89" t="s">
+        <v>308</v>
+      </c>
+      <c r="F14" s="89" t="s">
+        <v>160</v>
+      </c>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="89"/>
+      <c r="N14" s="89"/>
+      <c r="O14" s="89"/>
+      <c r="P14" s="89"/>
+      <c r="Q14" s="89"/>
+      <c r="R14" s="89"/>
+      <c r="S14" s="89"/>
+      <c r="T14" s="89">
+        <v>19</v>
+      </c>
+      <c r="U14" s="89" t="s">
+        <v>159</v>
+      </c>
+      <c r="V14" s="89"/>
+      <c r="W14" s="89"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" s="89">
+        <v>2</v>
+      </c>
+      <c r="B15" s="89" t="s">
+        <v>307</v>
+      </c>
+      <c r="C15" s="89" t="s">
+        <v>225</v>
+      </c>
+      <c r="D15" s="89" t="s">
+        <v>224</v>
+      </c>
+      <c r="E15" s="89" t="s">
+        <v>306</v>
+      </c>
+      <c r="F15" s="89" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" s="89"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="89"/>
+      <c r="N15" s="89"/>
+      <c r="O15" s="89"/>
+      <c r="P15" s="89"/>
+      <c r="Q15" s="89"/>
+      <c r="R15" s="89"/>
+      <c r="S15" s="89"/>
+      <c r="T15" s="89">
+        <v>19</v>
+      </c>
+      <c r="U15" s="89" t="s">
+        <v>159</v>
+      </c>
+      <c r="V15" s="89"/>
+      <c r="W15" s="89"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" s="89">
+        <v>1</v>
+      </c>
+      <c r="B16" s="89" t="s">
+        <v>305</v>
+      </c>
+      <c r="C16" s="89" t="s">
+        <v>304</v>
+      </c>
+      <c r="D16" s="89" t="s">
+        <v>303</v>
+      </c>
+      <c r="E16" s="89" t="s">
+        <v>302</v>
+      </c>
+      <c r="F16" s="89" t="s">
+        <v>301</v>
+      </c>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="89"/>
+      <c r="N16" s="89"/>
+      <c r="O16" s="89"/>
+      <c r="P16" s="89"/>
+      <c r="Q16" s="89"/>
+      <c r="R16" s="89"/>
+      <c r="S16" s="89"/>
+      <c r="T16" s="89"/>
+      <c r="U16" s="89"/>
+      <c r="V16" s="89"/>
+      <c r="W16" s="89"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17" s="89">
+        <v>1</v>
+      </c>
+      <c r="B17" s="89" t="s">
+        <v>300</v>
+      </c>
+      <c r="C17" s="89" t="s">
+        <v>225</v>
+      </c>
+      <c r="D17" s="89" t="s">
+        <v>224</v>
+      </c>
+      <c r="E17" s="89" t="s">
+        <v>299</v>
+      </c>
+      <c r="F17" s="89" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="89"/>
+      <c r="O17" s="89"/>
+      <c r="P17" s="89"/>
+      <c r="Q17" s="89"/>
+      <c r="R17" s="89"/>
+      <c r="S17" s="89"/>
+      <c r="T17" s="89">
+        <v>19</v>
+      </c>
+      <c r="U17" s="89" t="s">
+        <v>159</v>
+      </c>
+      <c r="V17" s="89"/>
+      <c r="W17" s="89"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A18" s="89">
+        <v>1</v>
+      </c>
+      <c r="B18" s="89" t="s">
+        <v>298</v>
+      </c>
+      <c r="C18" s="89" t="s">
+        <v>298</v>
+      </c>
+      <c r="D18" s="89" t="s">
+        <v>297</v>
+      </c>
+      <c r="E18" s="89" t="s">
+        <v>296</v>
+      </c>
+      <c r="F18" s="89" t="s">
+        <v>295</v>
+      </c>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="89"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="89"/>
+      <c r="N18" s="89"/>
+      <c r="O18" s="89"/>
+      <c r="P18" s="89"/>
+      <c r="Q18" s="89"/>
+      <c r="R18" s="89"/>
+      <c r="S18" s="89"/>
+      <c r="T18" s="89">
+        <v>0</v>
+      </c>
+      <c r="U18" s="89"/>
+      <c r="V18" s="89"/>
+      <c r="W18" s="89"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A19" s="89">
+        <v>1</v>
+      </c>
+      <c r="B19" s="89" t="s">
+        <v>294</v>
+      </c>
+      <c r="C19" s="89" t="s">
+        <v>225</v>
+      </c>
+      <c r="D19" s="89" t="s">
+        <v>224</v>
+      </c>
+      <c r="E19" s="89" t="s">
+        <v>293</v>
+      </c>
+      <c r="F19" s="89" t="s">
+        <v>160</v>
+      </c>
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="89"/>
+      <c r="O19" s="89"/>
+      <c r="P19" s="89"/>
+      <c r="Q19" s="89"/>
+      <c r="R19" s="89"/>
+      <c r="S19" s="89"/>
+      <c r="T19" s="89">
+        <v>19</v>
+      </c>
+      <c r="U19" s="89" t="s">
+        <v>159</v>
+      </c>
+      <c r="V19" s="89"/>
+      <c r="W19" s="89"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A20" s="89">
+        <v>1</v>
+      </c>
+      <c r="B20" s="89" t="s">
+        <v>292</v>
+      </c>
+      <c r="C20" s="89" t="s">
+        <v>292</v>
+      </c>
+      <c r="D20" s="89" t="s">
+        <v>285</v>
+      </c>
+      <c r="E20" s="89" t="s">
+        <v>291</v>
+      </c>
+      <c r="F20" s="89" t="s">
+        <v>290</v>
+      </c>
+      <c r="G20" s="89"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="89"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="89"/>
+      <c r="N20" s="89" t="s">
+        <v>289</v>
+      </c>
+      <c r="O20" s="89" t="s">
+        <v>288</v>
+      </c>
+      <c r="P20" s="89">
+        <v>1754832</v>
+      </c>
+      <c r="Q20" s="89" t="s">
+        <v>287</v>
+      </c>
+      <c r="R20" s="89"/>
+      <c r="S20" s="89"/>
+      <c r="T20" s="89">
+        <v>0</v>
+      </c>
+      <c r="U20" s="89"/>
+      <c r="V20" s="89"/>
+      <c r="W20" s="89"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A21" s="89">
+        <v>1</v>
+      </c>
+      <c r="B21" s="89" t="s">
+        <v>286</v>
+      </c>
+      <c r="C21" s="89" t="s">
+        <v>286</v>
+      </c>
+      <c r="D21" s="89" t="s">
+        <v>285</v>
+      </c>
+      <c r="E21" s="89" t="s">
+        <v>284</v>
+      </c>
+      <c r="F21" s="89" t="s">
+        <v>283</v>
+      </c>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="89"/>
+      <c r="N21" s="89"/>
+      <c r="O21" s="89"/>
+      <c r="P21" s="89"/>
+      <c r="Q21" s="89"/>
+      <c r="R21" s="89"/>
+      <c r="S21" s="89"/>
+      <c r="T21" s="89">
+        <v>0</v>
+      </c>
+      <c r="U21" s="89"/>
+      <c r="V21" s="89"/>
+      <c r="W21" s="89"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A22" s="89">
+        <v>1</v>
+      </c>
+      <c r="B22" s="89" t="s">
+        <v>277</v>
+      </c>
+      <c r="C22" s="89" t="s">
+        <v>277</v>
+      </c>
+      <c r="D22" s="89" t="s">
+        <v>282</v>
+      </c>
+      <c r="E22" s="89" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="89"/>
+      <c r="G22" s="89" t="s">
+        <v>281</v>
+      </c>
+      <c r="H22" s="89" t="s">
+        <v>280</v>
+      </c>
+      <c r="I22" s="89" t="s">
+        <v>279</v>
+      </c>
+      <c r="J22" s="89" t="s">
+        <v>67</v>
+      </c>
+      <c r="K22" s="89" t="s">
+        <v>278</v>
+      </c>
+      <c r="L22" s="89" t="s">
+        <v>143</v>
+      </c>
+      <c r="M22" s="89" t="s">
+        <v>277</v>
+      </c>
+      <c r="N22" s="89"/>
+      <c r="O22" s="89"/>
+      <c r="P22" s="89"/>
+      <c r="Q22" s="89"/>
+      <c r="R22" s="89" t="s">
+        <v>276</v>
+      </c>
+      <c r="S22" s="89">
+        <v>11</v>
+      </c>
+      <c r="T22" s="89"/>
+      <c r="U22" s="89"/>
+      <c r="V22" s="89"/>
+      <c r="W22" s="89" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A23" s="89">
+        <v>1</v>
+      </c>
+      <c r="B23" s="89" t="s">
+        <v>275</v>
+      </c>
+      <c r="C23" s="89" t="s">
+        <v>275</v>
+      </c>
+      <c r="D23" s="89" t="s">
+        <v>274</v>
+      </c>
+      <c r="E23" s="89" t="s">
+        <v>273</v>
+      </c>
+      <c r="F23" s="89" t="s">
+        <v>272</v>
+      </c>
+      <c r="G23" s="89"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="89"/>
+      <c r="J23" s="89"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="89"/>
+      <c r="M23" s="89"/>
+      <c r="N23" s="89"/>
+      <c r="O23" s="89"/>
+      <c r="P23" s="89"/>
+      <c r="Q23" s="89"/>
+      <c r="R23" s="89"/>
+      <c r="S23" s="89"/>
+      <c r="T23" s="89">
+        <v>3</v>
+      </c>
+      <c r="U23" s="89"/>
+      <c r="V23" s="89"/>
+      <c r="W23" s="89"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A24" s="89">
+        <v>11</v>
+      </c>
+      <c r="B24" s="89" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" s="89" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" s="89" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" s="89" t="s">
         <v>227</v>
       </c>
-      <c r="K2" s="100" t="s">
-        <v>226</v>
-      </c>
-      <c r="L2" s="100" t="s">
-        <v>224</v>
-      </c>
-      <c r="M2" s="100" t="s">
-        <v>223</v>
-      </c>
-      <c r="N2" s="100" t="s">
-        <v>222</v>
-      </c>
-      <c r="O2" s="100" t="s">
-        <v>220</v>
-      </c>
-      <c r="P2" s="100" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q2" s="100" t="s">
-        <v>218</v>
-      </c>
-      <c r="R2" s="100" t="s">
-        <v>216</v>
-      </c>
-      <c r="S2" s="100" t="s">
-        <v>214</v>
-      </c>
-      <c r="T2" s="100" t="s">
-        <v>213</v>
-      </c>
-      <c r="U2" s="100" t="s">
-        <v>212</v>
-      </c>
-      <c r="V2" s="100" t="s">
-        <v>211</v>
-      </c>
-      <c r="W2" s="100" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" s="100">
-        <v>1</v>
-      </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100" t="s">
-        <v>347</v>
-      </c>
-      <c r="D3" s="100" t="s">
-        <v>346</v>
-      </c>
-      <c r="E3" s="100" t="s">
-        <v>345</v>
-      </c>
-      <c r="F3" s="100" t="s">
-        <v>204</v>
-      </c>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="100"/>
-      <c r="S3" s="100"/>
-      <c r="T3" s="100">
-        <v>52</v>
-      </c>
-      <c r="U3" s="100"/>
-      <c r="V3" s="100"/>
-      <c r="W3" s="100"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4" s="100">
-        <v>2</v>
-      </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100" t="s">
-        <v>203</v>
-      </c>
-      <c r="D4" s="100" t="s">
-        <v>202</v>
-      </c>
-      <c r="E4" s="100" t="s">
-        <v>344</v>
-      </c>
-      <c r="F4" s="100" t="s">
-        <v>200</v>
-      </c>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="100"/>
-      <c r="Q4" s="100"/>
-      <c r="R4" s="100"/>
-      <c r="S4" s="100"/>
-      <c r="T4" s="100">
-        <v>98</v>
-      </c>
-      <c r="U4" s="100"/>
-      <c r="V4" s="100"/>
-      <c r="W4" s="100"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" s="100">
-        <v>3</v>
-      </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100" t="s">
-        <v>159</v>
-      </c>
-      <c r="D5" s="100" t="s">
-        <v>159</v>
-      </c>
-      <c r="E5" s="100" t="s">
-        <v>343</v>
-      </c>
-      <c r="F5" s="100" t="s">
-        <v>157</v>
-      </c>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="100" t="s">
-        <v>156</v>
-      </c>
-      <c r="P5" s="100" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q5" s="100" t="s">
-        <v>154</v>
-      </c>
-      <c r="R5" s="100"/>
-      <c r="S5" s="100"/>
-      <c r="T5" s="100">
-        <v>32</v>
-      </c>
-      <c r="U5" s="100"/>
-      <c r="V5" s="100"/>
-      <c r="W5" s="100"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" s="100">
-        <v>8</v>
-      </c>
-      <c r="B6" s="100" t="s">
-        <v>198</v>
-      </c>
-      <c r="C6" s="100" t="s">
-        <v>184</v>
-      </c>
-      <c r="D6" s="100" t="s">
-        <v>183</v>
-      </c>
-      <c r="E6" s="100" t="s">
-        <v>342</v>
-      </c>
-      <c r="F6" s="100" t="s">
-        <v>181</v>
-      </c>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
-      <c r="P6" s="100"/>
-      <c r="Q6" s="100"/>
-      <c r="R6" s="100"/>
-      <c r="S6" s="100"/>
-      <c r="T6" s="100">
-        <v>54</v>
-      </c>
-      <c r="U6" s="100" t="s">
-        <v>173</v>
-      </c>
-      <c r="V6" s="100"/>
-      <c r="W6" s="100"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A7" s="100">
-        <v>1</v>
-      </c>
-      <c r="B7" s="100">
-        <v>0.1</v>
-      </c>
-      <c r="C7" s="100" t="s">
-        <v>341</v>
-      </c>
-      <c r="D7" s="100" t="s">
-        <v>340</v>
-      </c>
-      <c r="E7" s="100" t="s">
-        <v>339</v>
-      </c>
-      <c r="F7" s="100" t="s">
-        <v>338</v>
-      </c>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
-      <c r="N7" s="100"/>
-      <c r="O7" s="100"/>
-      <c r="P7" s="100"/>
-      <c r="Q7" s="100"/>
-      <c r="R7" s="100"/>
-      <c r="S7" s="100"/>
-      <c r="T7" s="100">
-        <v>0</v>
-      </c>
-      <c r="U7" s="100" t="s">
-        <v>168</v>
-      </c>
-      <c r="V7" s="100"/>
-      <c r="W7" s="100"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A8" s="100">
-        <v>1</v>
-      </c>
-      <c r="B8" s="100" t="s">
-        <v>270</v>
-      </c>
-      <c r="C8" s="100" t="s">
-        <v>242</v>
-      </c>
-      <c r="D8" s="100" t="s">
-        <v>241</v>
-      </c>
-      <c r="E8" s="100" t="s">
-        <v>337</v>
-      </c>
-      <c r="F8" s="100" t="s">
-        <v>169</v>
-      </c>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
-      <c r="N8" s="100"/>
-      <c r="O8" s="100"/>
-      <c r="P8" s="100"/>
-      <c r="Q8" s="100"/>
-      <c r="R8" s="100"/>
-      <c r="S8" s="100"/>
-      <c r="T8" s="100">
-        <v>19</v>
-      </c>
-      <c r="U8" s="100" t="s">
-        <v>168</v>
-      </c>
-      <c r="V8" s="100"/>
-      <c r="W8" s="100"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9" s="100">
-        <v>1</v>
-      </c>
-      <c r="B9" s="100" t="s">
-        <v>336</v>
-      </c>
-      <c r="C9" s="100" t="s">
-        <v>184</v>
-      </c>
-      <c r="D9" s="100" t="s">
-        <v>183</v>
-      </c>
-      <c r="E9" s="100" t="s">
-        <v>335</v>
-      </c>
-      <c r="F9" s="100" t="s">
-        <v>181</v>
-      </c>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="100"/>
-      <c r="M9" s="100"/>
-      <c r="N9" s="100"/>
-      <c r="O9" s="100"/>
-      <c r="P9" s="100"/>
-      <c r="Q9" s="100"/>
-      <c r="R9" s="100"/>
-      <c r="S9" s="100"/>
-      <c r="T9" s="100">
-        <v>54</v>
-      </c>
-      <c r="U9" s="100" t="s">
-        <v>173</v>
-      </c>
-      <c r="V9" s="100"/>
-      <c r="W9" s="100"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="100">
-        <v>1</v>
-      </c>
-      <c r="B10" s="100" t="s">
-        <v>334</v>
-      </c>
-      <c r="C10" s="100" t="s">
-        <v>333</v>
-      </c>
-      <c r="D10" s="100" t="s">
-        <v>332</v>
-      </c>
-      <c r="E10" s="100" t="s">
-        <v>257</v>
-      </c>
-      <c r="F10" s="100" t="s">
-        <v>331</v>
-      </c>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="100"/>
-      <c r="M10" s="100"/>
-      <c r="N10" s="100"/>
-      <c r="O10" s="100"/>
-      <c r="P10" s="100"/>
-      <c r="Q10" s="100"/>
-      <c r="R10" s="100"/>
-      <c r="S10" s="100"/>
-      <c r="T10" s="100">
-        <v>0</v>
-      </c>
-      <c r="U10" s="100" t="s">
-        <v>173</v>
-      </c>
-      <c r="V10" s="100"/>
-      <c r="W10" s="100"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A11" s="100">
-        <v>1</v>
-      </c>
-      <c r="B11" s="100" t="s">
-        <v>330</v>
-      </c>
-      <c r="C11" s="100" t="s">
-        <v>321</v>
-      </c>
-      <c r="D11" s="100" t="s">
-        <v>320</v>
-      </c>
-      <c r="E11" s="100" t="s">
-        <v>329</v>
-      </c>
-      <c r="F11" s="100" t="s">
-        <v>318</v>
-      </c>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="100"/>
-      <c r="M11" s="100"/>
-      <c r="N11" s="100"/>
-      <c r="O11" s="100"/>
-      <c r="P11" s="100"/>
-      <c r="Q11" s="100"/>
-      <c r="R11" s="100"/>
-      <c r="S11" s="100"/>
-      <c r="T11" s="100"/>
-      <c r="U11" s="100"/>
-      <c r="V11" s="100"/>
-      <c r="W11" s="100"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A12" s="100">
-        <v>1</v>
-      </c>
-      <c r="B12" s="100" t="s">
-        <v>328</v>
-      </c>
-      <c r="C12" s="100" t="s">
-        <v>242</v>
-      </c>
-      <c r="D12" s="100" t="s">
-        <v>241</v>
-      </c>
-      <c r="E12" s="100" t="s">
-        <v>327</v>
-      </c>
-      <c r="F12" s="100" t="s">
-        <v>169</v>
-      </c>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="100"/>
-      <c r="M12" s="100"/>
-      <c r="N12" s="100"/>
-      <c r="O12" s="100"/>
-      <c r="P12" s="100"/>
-      <c r="Q12" s="100"/>
-      <c r="R12" s="100"/>
-      <c r="S12" s="100"/>
-      <c r="T12" s="100">
-        <v>19</v>
-      </c>
-      <c r="U12" s="100" t="s">
-        <v>168</v>
-      </c>
-      <c r="V12" s="100"/>
-      <c r="W12" s="100"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13" s="100">
-        <v>1</v>
-      </c>
-      <c r="B13" s="100" t="s">
-        <v>185</v>
-      </c>
-      <c r="C13" s="100" t="s">
-        <v>184</v>
-      </c>
-      <c r="D13" s="100" t="s">
-        <v>183</v>
-      </c>
-      <c r="E13" s="100" t="s">
-        <v>326</v>
-      </c>
-      <c r="F13" s="100" t="s">
-        <v>181</v>
-      </c>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="100"/>
-      <c r="N13" s="100"/>
-      <c r="O13" s="100"/>
-      <c r="P13" s="100"/>
-      <c r="Q13" s="100"/>
-      <c r="R13" s="100"/>
-      <c r="S13" s="100"/>
-      <c r="T13" s="100">
-        <v>54</v>
-      </c>
-      <c r="U13" s="100" t="s">
-        <v>173</v>
-      </c>
-      <c r="V13" s="100"/>
-      <c r="W13" s="100"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14" s="100">
-        <v>9</v>
-      </c>
-      <c r="B14" s="100" t="s">
-        <v>180</v>
-      </c>
-      <c r="C14" s="100" t="s">
-        <v>242</v>
-      </c>
-      <c r="D14" s="100" t="s">
-        <v>241</v>
-      </c>
-      <c r="E14" s="100" t="s">
-        <v>325</v>
-      </c>
-      <c r="F14" s="100" t="s">
-        <v>169</v>
-      </c>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="100"/>
-      <c r="M14" s="100"/>
-      <c r="N14" s="100"/>
-      <c r="O14" s="100"/>
-      <c r="P14" s="100"/>
-      <c r="Q14" s="100"/>
-      <c r="R14" s="100"/>
-      <c r="S14" s="100"/>
-      <c r="T14" s="100">
-        <v>19</v>
-      </c>
-      <c r="U14" s="100" t="s">
-        <v>168</v>
-      </c>
-      <c r="V14" s="100"/>
-      <c r="W14" s="100"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15" s="100">
-        <v>2</v>
-      </c>
-      <c r="B15" s="100" t="s">
-        <v>324</v>
-      </c>
-      <c r="C15" s="100" t="s">
-        <v>242</v>
-      </c>
-      <c r="D15" s="100" t="s">
-        <v>241</v>
-      </c>
-      <c r="E15" s="100" t="s">
-        <v>323</v>
-      </c>
-      <c r="F15" s="100" t="s">
-        <v>169</v>
-      </c>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="100"/>
-      <c r="J15" s="100"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="100"/>
-      <c r="M15" s="100"/>
-      <c r="N15" s="100"/>
-      <c r="O15" s="100"/>
-      <c r="P15" s="100"/>
-      <c r="Q15" s="100"/>
-      <c r="R15" s="100"/>
-      <c r="S15" s="100"/>
-      <c r="T15" s="100">
-        <v>19</v>
-      </c>
-      <c r="U15" s="100" t="s">
-        <v>168</v>
-      </c>
-      <c r="V15" s="100"/>
-      <c r="W15" s="100"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A16" s="100">
-        <v>1</v>
-      </c>
-      <c r="B16" s="100" t="s">
-        <v>322</v>
-      </c>
-      <c r="C16" s="100" t="s">
-        <v>321</v>
-      </c>
-      <c r="D16" s="100" t="s">
-        <v>320</v>
-      </c>
-      <c r="E16" s="100" t="s">
-        <v>319</v>
-      </c>
-      <c r="F16" s="100" t="s">
-        <v>318</v>
-      </c>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="100"/>
-      <c r="M16" s="100"/>
-      <c r="N16" s="100"/>
-      <c r="O16" s="100"/>
-      <c r="P16" s="100"/>
-      <c r="Q16" s="100"/>
-      <c r="R16" s="100"/>
-      <c r="S16" s="100"/>
-      <c r="T16" s="100"/>
-      <c r="U16" s="100"/>
-      <c r="V16" s="100"/>
-      <c r="W16" s="100"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A17" s="100">
-        <v>1</v>
-      </c>
-      <c r="B17" s="100" t="s">
-        <v>317</v>
-      </c>
-      <c r="C17" s="100" t="s">
-        <v>242</v>
-      </c>
-      <c r="D17" s="100" t="s">
-        <v>241</v>
-      </c>
-      <c r="E17" s="100" t="s">
-        <v>316</v>
-      </c>
-      <c r="F17" s="100" t="s">
-        <v>169</v>
-      </c>
-      <c r="G17" s="100"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="100"/>
-      <c r="J17" s="100"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="100"/>
-      <c r="M17" s="100"/>
-      <c r="N17" s="100"/>
-      <c r="O17" s="100"/>
-      <c r="P17" s="100"/>
-      <c r="Q17" s="100"/>
-      <c r="R17" s="100"/>
-      <c r="S17" s="100"/>
-      <c r="T17" s="100">
-        <v>19</v>
-      </c>
-      <c r="U17" s="100" t="s">
-        <v>168</v>
-      </c>
-      <c r="V17" s="100"/>
-      <c r="W17" s="100"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A18" s="100">
-        <v>1</v>
-      </c>
-      <c r="B18" s="100" t="s">
-        <v>315</v>
-      </c>
-      <c r="C18" s="100" t="s">
-        <v>315</v>
-      </c>
-      <c r="D18" s="100" t="s">
-        <v>314</v>
-      </c>
-      <c r="E18" s="100" t="s">
-        <v>313</v>
-      </c>
-      <c r="F18" s="100" t="s">
-        <v>312</v>
-      </c>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="100"/>
-      <c r="M18" s="100"/>
-      <c r="N18" s="100"/>
-      <c r="O18" s="100"/>
-      <c r="P18" s="100"/>
-      <c r="Q18" s="100"/>
-      <c r="R18" s="100"/>
-      <c r="S18" s="100"/>
-      <c r="T18" s="100">
-        <v>0</v>
-      </c>
-      <c r="U18" s="100"/>
-      <c r="V18" s="100"/>
-      <c r="W18" s="100"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A19" s="100">
-        <v>1</v>
-      </c>
-      <c r="B19" s="100" t="s">
-        <v>311</v>
-      </c>
-      <c r="C19" s="100" t="s">
-        <v>242</v>
-      </c>
-      <c r="D19" s="100" t="s">
-        <v>241</v>
-      </c>
-      <c r="E19" s="100" t="s">
-        <v>310</v>
-      </c>
-      <c r="F19" s="100" t="s">
-        <v>169</v>
-      </c>
-      <c r="G19" s="100"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="100"/>
-      <c r="J19" s="100"/>
-      <c r="K19" s="100"/>
-      <c r="L19" s="100"/>
-      <c r="M19" s="100"/>
-      <c r="N19" s="100"/>
-      <c r="O19" s="100"/>
-      <c r="P19" s="100"/>
-      <c r="Q19" s="100"/>
-      <c r="R19" s="100"/>
-      <c r="S19" s="100"/>
-      <c r="T19" s="100">
-        <v>19</v>
-      </c>
-      <c r="U19" s="100" t="s">
-        <v>168</v>
-      </c>
-      <c r="V19" s="100"/>
-      <c r="W19" s="100"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A20" s="100">
-        <v>1</v>
-      </c>
-      <c r="B20" s="100" t="s">
-        <v>309</v>
-      </c>
-      <c r="C20" s="100" t="s">
-        <v>309</v>
-      </c>
-      <c r="D20" s="100" t="s">
-        <v>302</v>
-      </c>
-      <c r="E20" s="100" t="s">
-        <v>308</v>
-      </c>
-      <c r="F20" s="100" t="s">
-        <v>307</v>
-      </c>
-      <c r="G20" s="100"/>
-      <c r="H20" s="100"/>
-      <c r="I20" s="100"/>
-      <c r="J20" s="100"/>
-      <c r="K20" s="100"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="100"/>
-      <c r="N20" s="100" t="s">
-        <v>306</v>
-      </c>
-      <c r="O20" s="100" t="s">
-        <v>305</v>
-      </c>
-      <c r="P20" s="100">
-        <v>1754832</v>
-      </c>
-      <c r="Q20" s="100" t="s">
-        <v>304</v>
-      </c>
-      <c r="R20" s="100"/>
-      <c r="S20" s="100"/>
-      <c r="T20" s="100">
-        <v>0</v>
-      </c>
-      <c r="U20" s="100"/>
-      <c r="V20" s="100"/>
-      <c r="W20" s="100"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A21" s="100">
-        <v>1</v>
-      </c>
-      <c r="B21" s="100" t="s">
-        <v>303</v>
-      </c>
-      <c r="C21" s="100" t="s">
-        <v>303</v>
-      </c>
-      <c r="D21" s="100" t="s">
-        <v>302</v>
-      </c>
-      <c r="E21" s="100" t="s">
-        <v>301</v>
-      </c>
-      <c r="F21" s="100" t="s">
-        <v>300</v>
-      </c>
-      <c r="G21" s="100"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="100"/>
-      <c r="J21" s="100"/>
-      <c r="K21" s="100"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="100"/>
-      <c r="N21" s="100"/>
-      <c r="O21" s="100"/>
-      <c r="P21" s="100"/>
-      <c r="Q21" s="100"/>
-      <c r="R21" s="100"/>
-      <c r="S21" s="100"/>
-      <c r="T21" s="100">
-        <v>0</v>
-      </c>
-      <c r="U21" s="100"/>
-      <c r="V21" s="100"/>
-      <c r="W21" s="100"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A22" s="100">
-        <v>1</v>
-      </c>
-      <c r="B22" s="100" t="s">
-        <v>294</v>
-      </c>
-      <c r="C22" s="100" t="s">
-        <v>294</v>
-      </c>
-      <c r="D22" s="100" t="s">
-        <v>299</v>
-      </c>
-      <c r="E22" s="100" t="s">
-        <v>152</v>
-      </c>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100" t="s">
-        <v>298</v>
-      </c>
-      <c r="H22" s="100" t="s">
-        <v>297</v>
-      </c>
-      <c r="I22" s="100" t="s">
-        <v>296</v>
-      </c>
-      <c r="J22" s="100" t="s">
-        <v>67</v>
-      </c>
-      <c r="K22" s="100" t="s">
-        <v>295</v>
-      </c>
-      <c r="L22" s="100" t="s">
-        <v>143</v>
-      </c>
-      <c r="M22" s="100" t="s">
-        <v>294</v>
-      </c>
-      <c r="N22" s="100"/>
-      <c r="O22" s="100"/>
-      <c r="P22" s="100"/>
-      <c r="Q22" s="100"/>
-      <c r="R22" s="100" t="s">
-        <v>293</v>
-      </c>
-      <c r="S22" s="100">
-        <v>11</v>
-      </c>
-      <c r="T22" s="100"/>
-      <c r="U22" s="100"/>
-      <c r="V22" s="100"/>
-      <c r="W22" s="100" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A23" s="100">
-        <v>1</v>
-      </c>
-      <c r="B23" s="100" t="s">
-        <v>292</v>
-      </c>
-      <c r="C23" s="100" t="s">
-        <v>292</v>
-      </c>
-      <c r="D23" s="100" t="s">
-        <v>291</v>
-      </c>
-      <c r="E23" s="100" t="s">
-        <v>290</v>
-      </c>
-      <c r="F23" s="100" t="s">
-        <v>289</v>
-      </c>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
-      <c r="K23" s="100"/>
-      <c r="L23" s="100"/>
-      <c r="M23" s="100"/>
-      <c r="N23" s="100"/>
-      <c r="O23" s="100"/>
-      <c r="P23" s="100"/>
-      <c r="Q23" s="100"/>
-      <c r="R23" s="100"/>
-      <c r="S23" s="100"/>
-      <c r="T23" s="100">
-        <v>3</v>
-      </c>
-      <c r="U23" s="100"/>
-      <c r="V23" s="100"/>
-      <c r="W23" s="100"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A24" s="100">
-        <v>11</v>
-      </c>
-      <c r="B24" s="100" t="s">
-        <v>137</v>
-      </c>
-      <c r="C24" s="100" t="s">
-        <v>137</v>
-      </c>
-      <c r="D24" s="100" t="s">
-        <v>136</v>
-      </c>
-      <c r="E24" s="100" t="s">
-        <v>244</v>
-      </c>
-      <c r="F24" s="100" t="s">
+      <c r="F24" s="89" t="s">
         <v>134</v>
       </c>
-      <c r="G24" s="100"/>
-      <c r="H24" s="100"/>
-      <c r="I24" s="100"/>
-      <c r="J24" s="100"/>
-      <c r="K24" s="100"/>
-      <c r="L24" s="100"/>
-      <c r="M24" s="100"/>
-      <c r="N24" s="100"/>
-      <c r="O24" s="100"/>
-      <c r="P24" s="100"/>
-      <c r="Q24" s="100"/>
-      <c r="R24" s="100"/>
-      <c r="S24" s="100"/>
-      <c r="T24" s="100">
-        <v>2</v>
-      </c>
-      <c r="U24" s="100"/>
-      <c r="V24" s="100"/>
-      <c r="W24" s="100"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="89"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="89"/>
+      <c r="M24" s="89"/>
+      <c r="N24" s="89"/>
+      <c r="O24" s="89"/>
+      <c r="P24" s="89"/>
+      <c r="Q24" s="89"/>
+      <c r="R24" s="89"/>
+      <c r="S24" s="89"/>
+      <c r="T24" s="89">
+        <v>2</v>
+      </c>
+      <c r="U24" s="89"/>
+      <c r="V24" s="89"/>
+      <c r="W24" s="89"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/General Documentation/OSMPI Part Management-MPS.xlsx
+++ b/General Documentation/OSMPI Part Management-MPS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RFLab\Documents\GitHub\MPS\General Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5CE3F4-46A3-4062-B062-78437844E9D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55020635-6ADF-49B9-9AF2-8312881A4B4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="375">
   <si>
     <t>Magnetic Particle Spectroscopy Project Management Spreadsheet</t>
   </si>
@@ -1140,6 +1140,33 @@
   </si>
   <si>
     <t>For bypass of power supply</t>
+  </si>
+  <si>
+    <t>Misc items:</t>
+  </si>
+  <si>
+    <t>Solder (lead free)</t>
+  </si>
+  <si>
+    <t>Digikey: SMDSWLF.015.3OZ-ND</t>
+  </si>
+  <si>
+    <t>Lead Free No-Clean, Water Soluble Wire Solder Sn96.5Ag3Cu0.5 (96.5/3/0.5) 27 AWG, 28 SWG Tube, 0.3 oz (8.51g)</t>
+  </si>
+  <si>
+    <t>Tweezers</t>
+  </si>
+  <si>
+    <t>Digkey/243-18851-ND</t>
+  </si>
+  <si>
+    <t>Flux</t>
+  </si>
+  <si>
+    <t>Digikey/KE1804-ND</t>
+  </si>
+  <si>
+    <t>FLUX PEN FORMULA 951 NO CLEAN</t>
   </si>
 </sst>
 </file>
@@ -1563,7 +1590,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1677,6 +1704,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5923,15 +5951,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26679483-298F-467F-B7FE-634856DB3200}">
-  <dimension ref="A4:AF23"/>
+  <dimension ref="A4:AF30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
     <col min="3" max="3" width="17.25" customWidth="1"/>
     <col min="4" max="4" width="9.875" customWidth="1"/>
     <col min="5" max="5" width="36.625" bestFit="1" customWidth="1"/>
@@ -6917,6 +6946,41 @@
       <c r="AE23" s="89"/>
       <c r="AF23" s="89"/>
     </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A27" s="105" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A28" s="105" t="s">
+        <v>367</v>
+      </c>
+      <c r="B28" s="105" t="s">
+        <v>368</v>
+      </c>
+      <c r="C28" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A29" s="105" t="s">
+        <v>370</v>
+      </c>
+      <c r="B29" s="105" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A30" s="105" t="s">
+        <v>372</v>
+      </c>
+      <c r="B30" s="105" t="s">
+        <v>373</v>
+      </c>
+      <c r="C30" t="s">
+        <v>374</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F23" r:id="rId1" xr:uid="{8F3FC205-D16F-49E1-AE81-81677CD15645}"/>
